--- a/PythonResources/Data/Consumption/Sympheny/base_1359_coo.xlsx
+++ b/PythonResources/Data/Consumption/Sympheny/base_1359_coo.xlsx
@@ -855,7 +855,7 @@
         <v>64</v>
       </c>
       <c r="B64">
-        <v>47.52527884243974</v>
+        <v>47.52527884243973</v>
       </c>
     </row>
     <row r="65" spans="1:2">
@@ -879,7 +879,7 @@
         <v>67</v>
       </c>
       <c r="B67">
-        <v>36.53716638990992</v>
+        <v>36.53716638990991</v>
       </c>
     </row>
     <row r="68" spans="1:2">
@@ -919,7 +919,7 @@
         <v>72</v>
       </c>
       <c r="B72">
-        <v>27.07976397230831</v>
+        <v>27.0797639723083</v>
       </c>
     </row>
     <row r="73" spans="1:2">
@@ -983,7 +983,7 @@
         <v>80</v>
       </c>
       <c r="B80">
-        <v>31.78414028490022</v>
+        <v>31.78414028490021</v>
       </c>
     </row>
     <row r="81" spans="1:2">
@@ -1015,7 +1015,7 @@
         <v>84</v>
       </c>
       <c r="B84">
-        <v>54.73775710389545</v>
+        <v>54.73775710389544</v>
       </c>
     </row>
     <row r="85" spans="1:2">
@@ -1079,7 +1079,7 @@
         <v>92</v>
       </c>
       <c r="B92">
-        <v>23.08262669021395</v>
+        <v>23.08262669021394</v>
       </c>
     </row>
     <row r="93" spans="1:2">
@@ -1103,7 +1103,7 @@
         <v>95</v>
       </c>
       <c r="B95">
-        <v>14.14489783836664</v>
+        <v>14.14489783836663</v>
       </c>
     </row>
     <row r="96" spans="1:2">
@@ -1831,7 +1831,7 @@
         <v>186</v>
       </c>
       <c r="B186">
-        <v>20.14039861178111</v>
+        <v>20.1403986117811</v>
       </c>
     </row>
     <row r="187" spans="1:2">
@@ -2247,7 +2247,7 @@
         <v>238</v>
       </c>
       <c r="B238">
-        <v>8.085331735900793</v>
+        <v>8.085331735900791</v>
       </c>
     </row>
     <row r="239" spans="1:2">
@@ -2367,7 +2367,7 @@
         <v>253</v>
       </c>
       <c r="B253">
-        <v>24.21733913770295</v>
+        <v>24.21733913770294</v>
       </c>
     </row>
     <row r="254" spans="1:2">
@@ -2447,7 +2447,7 @@
         <v>263</v>
       </c>
       <c r="B263">
-        <v>7.671603350622571</v>
+        <v>7.67160335062257</v>
       </c>
     </row>
     <row r="264" spans="1:2">
@@ -2535,7 +2535,7 @@
         <v>274</v>
       </c>
       <c r="B274">
-        <v>20.11296716256241</v>
+        <v>20.1129671625624</v>
       </c>
     </row>
     <row r="275" spans="1:2">
@@ -2575,7 +2575,7 @@
         <v>279</v>
       </c>
       <c r="B279">
-        <v>39.60444788053956</v>
+        <v>39.60444788053955</v>
       </c>
     </row>
     <row r="280" spans="1:2">
@@ -2703,7 +2703,7 @@
         <v>295</v>
       </c>
       <c r="B295">
-        <v>6.312017495168725</v>
+        <v>6.312017495168724</v>
       </c>
     </row>
     <row r="296" spans="1:2">
@@ -2743,7 +2743,7 @@
         <v>300</v>
       </c>
       <c r="B300">
-        <v>44.21592067387583</v>
+        <v>44.21592067387582</v>
       </c>
     </row>
     <row r="301" spans="1:2">
@@ -2783,7 +2783,7 @@
         <v>305</v>
       </c>
       <c r="B305">
-        <v>45.02626209577445</v>
+        <v>45.02626209577444</v>
       </c>
     </row>
     <row r="306" spans="1:2">
@@ -2935,7 +2935,7 @@
         <v>324</v>
       </c>
       <c r="B324">
-        <v>3.568257124117344</v>
+        <v>3.568257124117343</v>
       </c>
     </row>
     <row r="325" spans="1:2">
@@ -2967,7 +2967,7 @@
         <v>328</v>
       </c>
       <c r="B328">
-        <v>4.524225545126786</v>
+        <v>4.524225545126785</v>
       </c>
     </row>
     <row r="329" spans="1:2">
@@ -2975,7 +2975,7 @@
         <v>329</v>
       </c>
       <c r="B329">
-        <v>3.38306553478724</v>
+        <v>3.383065534787239</v>
       </c>
     </row>
     <row r="330" spans="1:2">
@@ -3231,7 +3231,7 @@
         <v>361</v>
       </c>
       <c r="B361">
-        <v>4.231125199361575</v>
+        <v>4.231125199361574</v>
       </c>
     </row>
     <row r="362" spans="1:2">
@@ -3479,7 +3479,7 @@
         <v>392</v>
       </c>
       <c r="B392">
-        <v>8.395635351635425</v>
+        <v>8.395635351635423</v>
       </c>
     </row>
     <row r="393" spans="1:2">
@@ -3863,7 +3863,7 @@
         <v>440</v>
       </c>
       <c r="B440">
-        <v>5.714328418922777</v>
+        <v>5.714328418922776</v>
       </c>
     </row>
     <row r="441" spans="1:2">
@@ -3927,7 +3927,7 @@
         <v>448</v>
       </c>
       <c r="B448">
-        <v>1.575025306684189</v>
+        <v>1.575025306684188</v>
       </c>
     </row>
     <row r="449" spans="1:2">
@@ -4455,7 +4455,7 @@
         <v>514</v>
       </c>
       <c r="B514">
-        <v>9.350783173736616</v>
+        <v>9.350783173736614</v>
       </c>
     </row>
     <row r="515" spans="1:2">
@@ -4823,7 +4823,7 @@
         <v>560</v>
       </c>
       <c r="B560">
-        <v>4.880218935788722</v>
+        <v>4.880218935788721</v>
       </c>
     </row>
     <row r="561" spans="1:2">
@@ -4831,7 +4831,7 @@
         <v>561</v>
       </c>
       <c r="B561">
-        <v>6.075069560411027</v>
+        <v>6.075069560411026</v>
       </c>
     </row>
     <row r="562" spans="1:2">
@@ -4887,7 +4887,7 @@
         <v>568</v>
       </c>
       <c r="B568">
-        <v>4.528269925460313</v>
+        <v>4.528269925460312</v>
       </c>
     </row>
     <row r="569" spans="1:2">
@@ -5215,7 +5215,7 @@
         <v>609</v>
       </c>
       <c r="B609">
-        <v>9.755309128400871</v>
+        <v>9.755309128400867</v>
       </c>
     </row>
     <row r="610" spans="1:2">
@@ -5311,7 +5311,7 @@
         <v>621</v>
       </c>
       <c r="B621">
-        <v>5.617820125891596</v>
+        <v>5.617820125891595</v>
       </c>
     </row>
     <row r="622" spans="1:2">
@@ -5815,7 +5815,7 @@
         <v>684</v>
       </c>
       <c r="B684">
-        <v>8.033721925992531</v>
+        <v>8.033721925992529</v>
       </c>
     </row>
     <row r="685" spans="1:2">
@@ -5863,7 +5863,7 @@
         <v>690</v>
       </c>
       <c r="B690">
-        <v>9.791649937194878</v>
+        <v>9.791649937194876</v>
       </c>
     </row>
     <row r="691" spans="1:2">
@@ -5975,7 +5975,7 @@
         <v>704</v>
       </c>
       <c r="B704">
-        <v>16.36438342835674</v>
+        <v>16.36438342835673</v>
       </c>
     </row>
     <row r="705" spans="1:2">
@@ -6023,7 +6023,7 @@
         <v>710</v>
       </c>
       <c r="B710">
-        <v>8.508878000974169</v>
+        <v>8.508878000974168</v>
       </c>
     </row>
     <row r="711" spans="1:2">
@@ -6031,7 +6031,7 @@
         <v>711</v>
       </c>
       <c r="B711">
-        <v>8.813290888831709</v>
+        <v>8.813290888831707</v>
       </c>
     </row>
     <row r="712" spans="1:2">
@@ -6175,7 +6175,7 @@
         <v>729</v>
       </c>
       <c r="B729">
-        <v>6.96568313979899</v>
+        <v>6.965683139798989</v>
       </c>
     </row>
     <row r="730" spans="1:2">
@@ -6367,7 +6367,7 @@
         <v>753</v>
       </c>
       <c r="B753">
-        <v>4.063693714974348</v>
+        <v>4.063693714974347</v>
       </c>
     </row>
     <row r="754" spans="1:2">
@@ -6439,7 +6439,7 @@
         <v>762</v>
       </c>
       <c r="B762">
-        <v>7.620403840168435</v>
+        <v>7.620403840168434</v>
       </c>
     </row>
     <row r="763" spans="1:2">
@@ -6591,7 +6591,7 @@
         <v>781</v>
       </c>
       <c r="B781">
-        <v>9.01715110332454</v>
+        <v>9.017151103324538</v>
       </c>
     </row>
     <row r="782" spans="1:2">
@@ -6615,7 +6615,7 @@
         <v>784</v>
       </c>
       <c r="B784">
-        <v>8.003770065841341</v>
+        <v>8.003770065841339</v>
       </c>
     </row>
     <row r="785" spans="1:2">
@@ -6639,7 +6639,7 @@
         <v>787</v>
       </c>
       <c r="B787">
-        <v>0.4361160819215613</v>
+        <v>0.4361160819215612</v>
       </c>
     </row>
     <row r="788" spans="1:2">
@@ -7135,7 +7135,7 @@
         <v>849</v>
       </c>
       <c r="B849">
-        <v>5.218422914403915</v>
+        <v>5.218422914403914</v>
       </c>
     </row>
     <row r="850" spans="1:2">
@@ -7207,7 +7207,7 @@
         <v>858</v>
       </c>
       <c r="B858">
-        <v>0.5752427653948752</v>
+        <v>0.5752427653948751</v>
       </c>
     </row>
     <row r="859" spans="1:2">
@@ -7311,7 +7311,7 @@
         <v>871</v>
       </c>
       <c r="B871">
-        <v>8.622325800039976</v>
+        <v>8.622325800039974</v>
       </c>
     </row>
     <row r="872" spans="1:2">
@@ -7335,7 +7335,7 @@
         <v>874</v>
       </c>
       <c r="B874">
-        <v>6.886231581217898</v>
+        <v>6.886231581217897</v>
       </c>
     </row>
     <row r="875" spans="1:2">
@@ -7343,7 +7343,7 @@
         <v>875</v>
       </c>
       <c r="B875">
-        <v>6.776886776693351</v>
+        <v>6.77688677669335</v>
       </c>
     </row>
     <row r="876" spans="1:2">
@@ -7567,7 +7567,7 @@
         <v>903</v>
       </c>
       <c r="B903">
-        <v>16.40380148305669</v>
+        <v>16.40380148305668</v>
       </c>
     </row>
     <row r="904" spans="1:2">
@@ -7591,7 +7591,7 @@
         <v>906</v>
       </c>
       <c r="B906">
-        <v>14.15368996952648</v>
+        <v>14.15368996952647</v>
       </c>
     </row>
     <row r="907" spans="1:2">
@@ -7615,7 +7615,7 @@
         <v>909</v>
       </c>
       <c r="B909">
-        <v>4.529940430380682</v>
+        <v>4.529940430380681</v>
       </c>
     </row>
     <row r="910" spans="1:2">
@@ -7783,7 +7783,7 @@
         <v>930</v>
       </c>
       <c r="B930">
-        <v>17.96291010163118</v>
+        <v>17.96291010163117</v>
       </c>
     </row>
     <row r="931" spans="1:2">
@@ -7831,7 +7831,7 @@
         <v>936</v>
       </c>
       <c r="B936">
-        <v>1.974097209318956</v>
+        <v>1.974097209318955</v>
       </c>
     </row>
     <row r="937" spans="1:2">
@@ -8007,7 +8007,7 @@
         <v>958</v>
       </c>
       <c r="B958">
-        <v>6.609689749137053</v>
+        <v>6.609689749137052</v>
       </c>
     </row>
     <row r="959" spans="1:2">
@@ -8319,7 +8319,7 @@
         <v>997</v>
       </c>
       <c r="B997">
-        <v>7.842991294031727</v>
+        <v>7.842991294031726</v>
       </c>
     </row>
     <row r="998" spans="1:2">
@@ -8335,7 +8335,7 @@
         <v>999</v>
       </c>
       <c r="B999">
-        <v>7.158582497445886</v>
+        <v>7.158582497445885</v>
       </c>
     </row>
     <row r="1000" spans="1:2">
@@ -8351,7 +8351,7 @@
         <v>1001</v>
       </c>
       <c r="B1001">
-        <v>5.981052371208468</v>
+        <v>5.981052371208467</v>
       </c>
     </row>
     <row r="1002" spans="1:2">
@@ -8479,7 +8479,7 @@
         <v>1017</v>
       </c>
       <c r="B1017">
-        <v>8.989719654105839</v>
+        <v>8.989719654105837</v>
       </c>
     </row>
     <row r="1018" spans="1:2">
@@ -8543,7 +8543,7 @@
         <v>1025</v>
       </c>
       <c r="B1025">
-        <v>10.93931612459271</v>
+        <v>10.9393161245927</v>
       </c>
     </row>
     <row r="1026" spans="1:2">
@@ -8687,7 +8687,7 @@
         <v>1043</v>
       </c>
       <c r="B1043">
-        <v>7.844603184744364</v>
+        <v>7.844603184744363</v>
       </c>
     </row>
     <row r="1044" spans="1:2">
@@ -8871,7 +8871,7 @@
         <v>1066</v>
       </c>
       <c r="B1066">
-        <v>21.01336931464166</v>
+        <v>21.01336931464165</v>
       </c>
     </row>
     <row r="1067" spans="1:2">
@@ -8887,7 +8887,7 @@
         <v>1068</v>
       </c>
       <c r="B1068">
-        <v>28.62213823457524</v>
+        <v>28.62213823457523</v>
       </c>
     </row>
     <row r="1069" spans="1:2">
@@ -8975,7 +8975,7 @@
         <v>1079</v>
       </c>
       <c r="B1079">
-        <v>0.5046741899956099</v>
+        <v>0.5046741899956098</v>
       </c>
     </row>
     <row r="1080" spans="1:2">
@@ -9079,7 +9079,7 @@
         <v>1092</v>
       </c>
       <c r="B1092">
-        <v>15.88450890965265</v>
+        <v>15.88450890965264</v>
       </c>
     </row>
     <row r="1093" spans="1:2">
@@ -9127,7 +9127,7 @@
         <v>1098</v>
       </c>
       <c r="B1098">
-        <v>15.28646814816031</v>
+        <v>15.2864681481603</v>
       </c>
     </row>
     <row r="1099" spans="1:2">
@@ -9263,7 +9263,7 @@
         <v>1115</v>
       </c>
       <c r="B1115">
-        <v>8.738792230803995</v>
+        <v>8.738792230803993</v>
       </c>
     </row>
     <row r="1116" spans="1:2">
@@ -9319,7 +9319,7 @@
         <v>1122</v>
       </c>
       <c r="B1122">
-        <v>6.022639151594512</v>
+        <v>6.022639151594511</v>
       </c>
     </row>
     <row r="1123" spans="1:2">
@@ -9663,7 +9663,7 @@
         <v>1165</v>
       </c>
       <c r="B1165">
-        <v>0.1670595772391653</v>
+        <v>0.1670595772391652</v>
       </c>
     </row>
     <row r="1166" spans="1:2">
@@ -10191,7 +10191,7 @@
         <v>1231</v>
       </c>
       <c r="B1231">
-        <v>24.90796104030841</v>
+        <v>24.9079610403084</v>
       </c>
     </row>
     <row r="1232" spans="1:2">
@@ -10223,7 +10223,7 @@
         <v>1235</v>
       </c>
       <c r="B1235">
-        <v>36.63681054305478</v>
+        <v>36.63681054305477</v>
       </c>
     </row>
     <row r="1236" spans="1:2">
@@ -10247,7 +10247,7 @@
         <v>1238</v>
       </c>
       <c r="B1238">
-        <v>42.85020963371396</v>
+        <v>42.85020963371395</v>
       </c>
     </row>
     <row r="1239" spans="1:2">
@@ -10439,7 +10439,7 @@
         <v>1262</v>
       </c>
       <c r="B1262">
-        <v>33.23279042900325</v>
+        <v>33.23279042900324</v>
       </c>
     </row>
     <row r="1263" spans="1:2">
@@ -10447,7 +10447,7 @@
         <v>1263</v>
       </c>
       <c r="B1263">
-        <v>33.9921374901748</v>
+        <v>33.99213749017479</v>
       </c>
     </row>
     <row r="1264" spans="1:2">
@@ -10455,7 +10455,7 @@
         <v>1264</v>
       </c>
       <c r="B1264">
-        <v>30.65288607566743</v>
+        <v>30.65288607566742</v>
       </c>
     </row>
     <row r="1265" spans="1:2">
@@ -10559,7 +10559,7 @@
         <v>1277</v>
       </c>
       <c r="B1277">
-        <v>7.794634572652605</v>
+        <v>7.794634572652604</v>
       </c>
     </row>
     <row r="1278" spans="1:2">
@@ -10743,7 +10743,7 @@
         <v>1300</v>
       </c>
       <c r="B1300">
-        <v>9.306998360560611</v>
+        <v>9.306998360560607</v>
       </c>
     </row>
     <row r="1301" spans="1:2">
@@ -10999,7 +10999,7 @@
         <v>1332</v>
       </c>
       <c r="B1332">
-        <v>29.38916375695971</v>
+        <v>29.3891637569597</v>
       </c>
     </row>
     <row r="1333" spans="1:2">
@@ -11223,7 +11223,7 @@
         <v>1360</v>
       </c>
       <c r="B1360">
-        <v>29.47210286090087</v>
+        <v>29.47210286090086</v>
       </c>
     </row>
     <row r="1361" spans="1:2">
@@ -11287,7 +11287,7 @@
         <v>1368</v>
       </c>
       <c r="B1368">
-        <v>9.802317723002153</v>
+        <v>9.802317723002149</v>
       </c>
     </row>
     <row r="1369" spans="1:2">
@@ -11415,7 +11415,7 @@
         <v>1384</v>
       </c>
       <c r="B1384">
-        <v>49.15592610155147</v>
+        <v>49.15592610155146</v>
       </c>
     </row>
     <row r="1385" spans="1:2">
@@ -11431,7 +11431,7 @@
         <v>1386</v>
       </c>
       <c r="B1386">
-        <v>40.80457378385777</v>
+        <v>40.80457378385776</v>
       </c>
     </row>
     <row r="1387" spans="1:2">
@@ -11559,7 +11559,7 @@
         <v>1402</v>
       </c>
       <c r="B1402">
-        <v>51.83869838945742</v>
+        <v>51.83869838945741</v>
       </c>
     </row>
     <row r="1403" spans="1:2">
@@ -11567,7 +11567,7 @@
         <v>1403</v>
       </c>
       <c r="B1403">
-        <v>43.81324106675514</v>
+        <v>43.81324106675513</v>
       </c>
     </row>
     <row r="1404" spans="1:2">
@@ -11623,7 +11623,7 @@
         <v>1410</v>
       </c>
       <c r="B1410">
-        <v>40.55985946657555</v>
+        <v>40.55985946657554</v>
       </c>
     </row>
     <row r="1411" spans="1:2">
@@ -11639,7 +11639,7 @@
         <v>1412</v>
       </c>
       <c r="B1412">
-        <v>21.19815060451764</v>
+        <v>21.19815060451763</v>
       </c>
     </row>
     <row r="1413" spans="1:2">
@@ -11815,7 +11815,7 @@
         <v>1434</v>
       </c>
       <c r="B1434">
-        <v>14.25057925490792</v>
+        <v>14.25057925490791</v>
       </c>
     </row>
     <row r="1435" spans="1:2">
@@ -11831,7 +11831,7 @@
         <v>1436</v>
       </c>
       <c r="B1436">
-        <v>7.050761662322378</v>
+        <v>7.050761662322377</v>
       </c>
     </row>
     <row r="1437" spans="1:2">
@@ -11927,7 +11927,7 @@
         <v>1448</v>
       </c>
       <c r="B1448">
-        <v>9.96866484454633</v>
+        <v>9.968664844546328</v>
       </c>
     </row>
     <row r="1449" spans="1:2">
@@ -12575,7 +12575,7 @@
         <v>1529</v>
       </c>
       <c r="B1529">
-        <v>20.13313045002231</v>
+        <v>20.1331304500223</v>
       </c>
     </row>
     <row r="1530" spans="1:2">
@@ -12599,7 +12599,7 @@
         <v>1532</v>
       </c>
       <c r="B1532">
-        <v>7.750205003191544</v>
+        <v>7.750205003191543</v>
       </c>
     </row>
     <row r="1533" spans="1:2">
@@ -12695,7 +12695,7 @@
         <v>1544</v>
       </c>
       <c r="B1544">
-        <v>14.10553839787442</v>
+        <v>14.10553839787441</v>
       </c>
     </row>
     <row r="1545" spans="1:2">
@@ -12831,7 +12831,7 @@
         <v>1561</v>
       </c>
       <c r="B1561">
-        <v>4.526687341851542</v>
+        <v>4.526687341851541</v>
       </c>
     </row>
     <row r="1562" spans="1:2">
@@ -12839,7 +12839,7 @@
         <v>1562</v>
       </c>
       <c r="B1562">
-        <v>2.567363843591504</v>
+        <v>2.567363843591503</v>
       </c>
     </row>
     <row r="1563" spans="1:2">
@@ -12911,7 +12911,7 @@
         <v>1571</v>
       </c>
       <c r="B1571">
-        <v>40.39456740077055</v>
+        <v>40.39456740077054</v>
       </c>
     </row>
     <row r="1572" spans="1:2">
@@ -12967,7 +12967,7 @@
         <v>1578</v>
       </c>
       <c r="B1578">
-        <v>53.76446818450112</v>
+        <v>53.76446818450111</v>
       </c>
     </row>
     <row r="1579" spans="1:2">
@@ -13007,7 +13007,7 @@
         <v>1583</v>
       </c>
       <c r="B1583">
-        <v>25.69292251025896</v>
+        <v>25.69292251025895</v>
       </c>
     </row>
     <row r="1584" spans="1:2">
@@ -13111,7 +13111,7 @@
         <v>1596</v>
       </c>
       <c r="B1596">
-        <v>7.14202398376152</v>
+        <v>7.142023983761519</v>
       </c>
     </row>
     <row r="1597" spans="1:2">
@@ -13135,7 +13135,7 @@
         <v>1599</v>
       </c>
       <c r="B1599">
-        <v>9.33422466005225</v>
+        <v>9.334224660052248</v>
       </c>
     </row>
     <row r="1600" spans="1:2">
@@ -13175,7 +13175,7 @@
         <v>1604</v>
       </c>
       <c r="B1604">
-        <v>0.5734579627694276</v>
+        <v>0.5734579627694275</v>
       </c>
     </row>
     <row r="1605" spans="1:2">
@@ -13271,7 +13271,7 @@
         <v>1616</v>
       </c>
       <c r="B1616">
-        <v>6.418138518267997</v>
+        <v>6.418138518267996</v>
       </c>
     </row>
     <row r="1617" spans="1:2">
@@ -13303,7 +13303,7 @@
         <v>1620</v>
       </c>
       <c r="B1620">
-        <v>9.336217543115149</v>
+        <v>9.336217543115144</v>
       </c>
     </row>
     <row r="1621" spans="1:2">
@@ -13495,7 +13495,7 @@
         <v>1644</v>
       </c>
       <c r="B1644">
-        <v>0.2617285564317077</v>
+        <v>0.2617285564317076</v>
       </c>
     </row>
     <row r="1645" spans="1:2">
@@ -13511,7 +13511,7 @@
         <v>1646</v>
       </c>
       <c r="B1646">
-        <v>0.2611778759500631</v>
+        <v>0.261177875950063</v>
       </c>
     </row>
     <row r="1647" spans="1:2">
@@ -13671,7 +13671,7 @@
         <v>1666</v>
       </c>
       <c r="B1666">
-        <v>0.4507198117780562</v>
+        <v>0.4507198117780561</v>
       </c>
     </row>
     <row r="1667" spans="1:2">
@@ -13839,7 +13839,7 @@
         <v>1687</v>
       </c>
       <c r="B1687">
-        <v>16.43800287326847</v>
+        <v>16.43800287326846</v>
       </c>
     </row>
     <row r="1688" spans="1:2">
@@ -13959,7 +13959,7 @@
         <v>1702</v>
       </c>
       <c r="B1702">
-        <v>4.522936032556676</v>
+        <v>4.522936032556675</v>
       </c>
     </row>
     <row r="1703" spans="1:2">
@@ -14143,7 +14143,7 @@
         <v>1725</v>
       </c>
       <c r="B1725">
-        <v>7.212155883313181</v>
+        <v>7.21215588331318</v>
       </c>
     </row>
     <row r="1726" spans="1:2">
@@ -14703,7 +14703,7 @@
         <v>1795</v>
       </c>
       <c r="B1795">
-        <v>13.9892478097336</v>
+        <v>13.98924780973359</v>
       </c>
     </row>
     <row r="1796" spans="1:2">
@@ -14999,7 +14999,7 @@
         <v>1832</v>
       </c>
       <c r="B1832">
-        <v>0.2412428908292797</v>
+        <v>0.2412428908292796</v>
       </c>
     </row>
     <row r="1833" spans="1:2">
@@ -15023,7 +15023,7 @@
         <v>1835</v>
       </c>
       <c r="B1835">
-        <v>4.526687341851542</v>
+        <v>4.526687341851541</v>
       </c>
     </row>
     <row r="1836" spans="1:2">
@@ -15031,7 +15031,7 @@
         <v>1836</v>
       </c>
       <c r="B1836">
-        <v>7.979064177282189</v>
+        <v>7.979064177282188</v>
       </c>
     </row>
     <row r="1837" spans="1:2">
@@ -15079,7 +15079,7 @@
         <v>1842</v>
       </c>
       <c r="B1842">
-        <v>9.113249096901596</v>
+        <v>9.113249096901594</v>
       </c>
     </row>
     <row r="1843" spans="1:2">
@@ -15087,7 +15087,7 @@
         <v>1843</v>
       </c>
       <c r="B1843">
-        <v>4.526687341851542</v>
+        <v>4.526687341851541</v>
       </c>
     </row>
     <row r="1844" spans="1:2">
@@ -15295,7 +15295,7 @@
         <v>1869</v>
       </c>
       <c r="B1869">
-        <v>17.97565869181295</v>
+        <v>17.97565869181294</v>
       </c>
     </row>
     <row r="1870" spans="1:2">
@@ -15439,7 +15439,7 @@
         <v>1887</v>
       </c>
       <c r="B1887">
-        <v>28.02878660970148</v>
+        <v>28.02878660970147</v>
       </c>
     </row>
     <row r="1888" spans="1:2">
@@ -15479,7 +15479,7 @@
         <v>1892</v>
       </c>
       <c r="B1892">
-        <v>14.32707079599853</v>
+        <v>14.32707079599852</v>
       </c>
     </row>
     <row r="1893" spans="1:2">
@@ -15527,7 +15527,7 @@
         <v>1898</v>
       </c>
       <c r="B1898">
-        <v>1.589544045939472</v>
+        <v>1.589544045939471</v>
       </c>
     </row>
     <row r="1899" spans="1:2">
@@ -15535,7 +15535,7 @@
         <v>1899</v>
       </c>
       <c r="B1899">
-        <v>0.5463987137698256</v>
+        <v>0.5463987137698255</v>
       </c>
     </row>
     <row r="1900" spans="1:2">
@@ -15671,7 +15671,7 @@
         <v>1916</v>
       </c>
       <c r="B1916">
-        <v>13.98256579005212</v>
+        <v>13.98256579005211</v>
       </c>
     </row>
     <row r="1917" spans="1:2">
@@ -15759,7 +15759,7 @@
         <v>1927</v>
       </c>
       <c r="B1927">
-        <v>9.816971274935218</v>
+        <v>9.816971274935216</v>
       </c>
     </row>
     <row r="1928" spans="1:2">
@@ -15831,7 +15831,7 @@
         <v>1936</v>
       </c>
       <c r="B1936">
-        <v>44.42224268509342</v>
+        <v>44.42224268509341</v>
       </c>
     </row>
     <row r="1937" spans="1:2">
@@ -15959,7 +15959,7 @@
         <v>1952</v>
       </c>
       <c r="B1952">
-        <v>17.0954198271936</v>
+        <v>17.09541982719359</v>
       </c>
     </row>
     <row r="1953" spans="1:2">
@@ -16055,7 +16055,7 @@
         <v>1964</v>
       </c>
       <c r="B1964">
-        <v>9.407023506055728</v>
+        <v>9.407023506055726</v>
       </c>
     </row>
     <row r="1965" spans="1:2">
@@ -16079,7 +16079,7 @@
         <v>1967</v>
       </c>
       <c r="B1967">
-        <v>1.63298010457947</v>
+        <v>1.632980104579469</v>
       </c>
     </row>
     <row r="1968" spans="1:2">
@@ -16343,7 +16343,7 @@
         <v>2000</v>
       </c>
       <c r="B2000">
-        <v>0.2541767019074822</v>
+        <v>0.2541767019074821</v>
       </c>
     </row>
     <row r="2001" spans="1:2">
@@ -16623,7 +16623,7 @@
         <v>2035</v>
       </c>
       <c r="B2035">
-        <v>14.25110678277751</v>
+        <v>14.2511067827775</v>
       </c>
     </row>
     <row r="2036" spans="1:2">
@@ -16639,7 +16639,7 @@
         <v>2037</v>
       </c>
       <c r="B2037">
-        <v>7.765825689552194</v>
+        <v>7.765825689552193</v>
       </c>
     </row>
     <row r="2038" spans="1:2">
@@ -16711,7 +16711,7 @@
         <v>2046</v>
       </c>
       <c r="B2046">
-        <v>17.55009023657281</v>
+        <v>17.5500902365728</v>
       </c>
     </row>
     <row r="2047" spans="1:2">
@@ -16975,7 +16975,7 @@
         <v>2079</v>
       </c>
       <c r="B2079">
-        <v>35.98970968969053</v>
+        <v>35.98970968969052</v>
       </c>
     </row>
     <row r="2080" spans="1:2">
@@ -17047,7 +17047,7 @@
         <v>2088</v>
       </c>
       <c r="B2088">
-        <v>7.088157526855565</v>
+        <v>7.088157526855564</v>
       </c>
     </row>
     <row r="2089" spans="1:2">
@@ -17087,7 +17087,7 @@
         <v>2093</v>
       </c>
       <c r="B2093">
-        <v>4.528035468629383</v>
+        <v>4.528035468629382</v>
       </c>
     </row>
     <row r="2094" spans="1:2">
@@ -17391,7 +17391,7 @@
         <v>2131</v>
       </c>
       <c r="B2131">
-        <v>33.26092524871474</v>
+        <v>33.26092524871473</v>
       </c>
     </row>
     <row r="2132" spans="1:2">
@@ -17431,7 +17431,7 @@
         <v>2136</v>
       </c>
       <c r="B2136">
-        <v>12.44687354746667</v>
+        <v>12.44687354746666</v>
       </c>
     </row>
     <row r="2137" spans="1:2">
@@ -17551,7 +17551,7 @@
         <v>2151</v>
       </c>
       <c r="B2151">
-        <v>8.538185104840304</v>
+        <v>8.538185104840302</v>
       </c>
     </row>
     <row r="2152" spans="1:2">
@@ -17567,7 +17567,7 @@
         <v>2153</v>
       </c>
       <c r="B2153">
-        <v>7.006039021822656</v>
+        <v>7.006039021822655</v>
       </c>
     </row>
     <row r="2154" spans="1:2">
@@ -17759,7 +17759,7 @@
         <v>2177</v>
       </c>
       <c r="B2177">
-        <v>14.70275856045851</v>
+        <v>14.7027585604585</v>
       </c>
     </row>
     <row r="2178" spans="1:2">
@@ -17943,7 +17943,7 @@
         <v>2200</v>
       </c>
       <c r="B2200">
-        <v>48.57769694227263</v>
+        <v>48.57769694227262</v>
       </c>
     </row>
     <row r="2201" spans="1:2">
@@ -18079,7 +18079,7 @@
         <v>2217</v>
       </c>
       <c r="B2217">
-        <v>38.29266191149138</v>
+        <v>38.29266191149137</v>
       </c>
     </row>
     <row r="2218" spans="1:2">
@@ -18111,7 +18111,7 @@
         <v>2221</v>
       </c>
       <c r="B2221">
-        <v>58.98230495682771</v>
+        <v>58.9823049568277</v>
       </c>
     </row>
     <row r="2222" spans="1:2">
@@ -18359,7 +18359,7 @@
         <v>2252</v>
       </c>
       <c r="B2252">
-        <v>52.01454101265423</v>
+        <v>52.01454101265422</v>
       </c>
     </row>
     <row r="2253" spans="1:2">
@@ -18415,7 +18415,7 @@
         <v>2259</v>
       </c>
       <c r="B2259">
-        <v>22.0999301904786</v>
+        <v>22.09993019047859</v>
       </c>
     </row>
     <row r="2260" spans="1:2">
@@ -18471,7 +18471,7 @@
         <v>2266</v>
       </c>
       <c r="B2266">
-        <v>37.76542711293962</v>
+        <v>37.76542711293961</v>
       </c>
     </row>
     <row r="2267" spans="1:2">
@@ -18543,7 +18543,7 @@
         <v>2275</v>
       </c>
       <c r="B2275">
-        <v>37.5078176699563</v>
+        <v>37.50781766995629</v>
       </c>
     </row>
     <row r="2276" spans="1:2">
@@ -18679,7 +18679,7 @@
         <v>2292</v>
       </c>
       <c r="B2292">
-        <v>73.39817627754063</v>
+        <v>73.39817627754061</v>
       </c>
     </row>
     <row r="2293" spans="1:2">
@@ -18719,7 +18719,7 @@
         <v>2297</v>
       </c>
       <c r="B2297">
-        <v>95.1982654883648</v>
+        <v>95.19826548836478</v>
       </c>
     </row>
     <row r="2298" spans="1:2">
@@ -18783,7 +18783,7 @@
         <v>2305</v>
       </c>
       <c r="B2305">
-        <v>49.62220212406167</v>
+        <v>49.62220212406166</v>
       </c>
     </row>
     <row r="2306" spans="1:2">
@@ -18863,7 +18863,7 @@
         <v>2315</v>
       </c>
       <c r="B2315">
-        <v>41.74738331523132</v>
+        <v>41.74738331523131</v>
       </c>
     </row>
     <row r="2316" spans="1:2">
@@ -18871,7 +18871,7 @@
         <v>2316</v>
       </c>
       <c r="B2316">
-        <v>43.24028718617221</v>
+        <v>43.2402871861722</v>
       </c>
     </row>
     <row r="2317" spans="1:2">
@@ -18935,7 +18935,7 @@
         <v>2324</v>
       </c>
       <c r="B2324">
-        <v>34.6289808571859</v>
+        <v>34.62898085718589</v>
       </c>
     </row>
     <row r="2325" spans="1:2">
@@ -18943,7 +18943,7 @@
         <v>2325</v>
       </c>
       <c r="B2325">
-        <v>29.20874922555978</v>
+        <v>29.20874922555977</v>
       </c>
     </row>
     <row r="2326" spans="1:2">
@@ -19143,7 +19143,7 @@
         <v>2350</v>
       </c>
       <c r="B2350">
-        <v>6.162727108074635</v>
+        <v>6.162727108074634</v>
       </c>
     </row>
     <row r="2351" spans="1:2">
@@ -19159,7 +19159,7 @@
         <v>2352</v>
       </c>
       <c r="B2352">
-        <v>6.860353408504102</v>
+        <v>6.860353408504101</v>
       </c>
     </row>
     <row r="2353" spans="1:2">
@@ -19463,7 +19463,7 @@
         <v>2390</v>
       </c>
       <c r="B2390">
-        <v>23.73922304523083</v>
+        <v>23.73922304523082</v>
       </c>
     </row>
     <row r="2391" spans="1:2">
@@ -19535,7 +19535,7 @@
         <v>2399</v>
       </c>
       <c r="B2399">
-        <v>0.4847394979458651</v>
+        <v>0.484739497945865</v>
       </c>
     </row>
     <row r="2400" spans="1:2">
@@ -19655,7 +19655,7 @@
         <v>2414</v>
       </c>
       <c r="B2414">
-        <v>38.2363922720684</v>
+        <v>38.23639227206839</v>
       </c>
     </row>
     <row r="2415" spans="1:2">
@@ -19807,7 +19807,7 @@
         <v>2433</v>
       </c>
       <c r="B2433">
-        <v>36.27486781030802</v>
+        <v>36.27486781030801</v>
       </c>
     </row>
     <row r="2434" spans="1:2">
@@ -19927,7 +19927,7 @@
         <v>2448</v>
       </c>
       <c r="B2448">
-        <v>35.12075406005964</v>
+        <v>35.12075406005963</v>
       </c>
     </row>
     <row r="2449" spans="1:2">
@@ -20023,7 +20023,7 @@
         <v>2460</v>
       </c>
       <c r="B2460">
-        <v>48.23128697457492</v>
+        <v>48.23128697457491</v>
       </c>
     </row>
     <row r="2461" spans="1:2">
@@ -20063,7 +20063,7 @@
         <v>2465</v>
       </c>
       <c r="B2465">
-        <v>42.71774152423903</v>
+        <v>42.71774152423902</v>
       </c>
     </row>
     <row r="2466" spans="1:2">
@@ -20191,7 +20191,7 @@
         <v>2481</v>
       </c>
       <c r="B2481">
-        <v>6.422124284393792</v>
+        <v>6.422124284393791</v>
       </c>
     </row>
     <row r="2482" spans="1:2">
@@ -20223,7 +20223,7 @@
         <v>2485</v>
       </c>
       <c r="B2485">
-        <v>16.84059455907756</v>
+        <v>16.84059455907755</v>
       </c>
     </row>
     <row r="2486" spans="1:2">
@@ -20263,7 +20263,7 @@
         <v>2490</v>
       </c>
       <c r="B2490">
-        <v>19.57553349186523</v>
+        <v>19.57553349186522</v>
       </c>
     </row>
     <row r="2491" spans="1:2">
@@ -20295,7 +20295,7 @@
         <v>2494</v>
       </c>
       <c r="B2494">
-        <v>4.524225545126786</v>
+        <v>4.524225545126785</v>
       </c>
     </row>
     <row r="2495" spans="1:2">
@@ -20431,7 +20431,7 @@
         <v>2511</v>
       </c>
       <c r="B2511">
-        <v>22.9275041894505</v>
+        <v>22.92750418945049</v>
       </c>
     </row>
     <row r="2512" spans="1:2">
@@ -20455,7 +20455,7 @@
         <v>2514</v>
       </c>
       <c r="B2514">
-        <v>21.02784702395153</v>
+        <v>21.02784702395152</v>
       </c>
     </row>
     <row r="2515" spans="1:2">
@@ -20479,7 +20479,7 @@
         <v>2517</v>
       </c>
       <c r="B2517">
-        <v>7.929476557540689</v>
+        <v>7.929476557540688</v>
       </c>
     </row>
     <row r="2518" spans="1:2">
@@ -20487,7 +20487,7 @@
         <v>2518</v>
       </c>
       <c r="B2518">
-        <v>4.526745956059274</v>
+        <v>4.526745956059273</v>
       </c>
     </row>
     <row r="2519" spans="1:2">
@@ -20495,7 +20495,7 @@
         <v>2519</v>
       </c>
       <c r="B2519">
-        <v>2.59494768975031</v>
+        <v>2.594947689750309</v>
       </c>
     </row>
     <row r="2520" spans="1:2">
@@ -20559,7 +20559,7 @@
         <v>2527</v>
       </c>
       <c r="B2527">
-        <v>16.59886956638968</v>
+        <v>16.59886956638967</v>
       </c>
     </row>
     <row r="2528" spans="1:2">
@@ -20647,7 +20647,7 @@
         <v>2538</v>
       </c>
       <c r="B2538">
-        <v>56.19256173981037</v>
+        <v>56.19256173981036</v>
       </c>
     </row>
     <row r="2539" spans="1:2">
@@ -20887,7 +20887,7 @@
         <v>2568</v>
       </c>
       <c r="B2568">
-        <v>2.322587981391162</v>
+        <v>2.322587981391161</v>
       </c>
     </row>
     <row r="2569" spans="1:2">
@@ -20895,7 +20895,7 @@
         <v>2569</v>
       </c>
       <c r="B2569">
-        <v>0.7991842074567823</v>
+        <v>0.7991842074567822</v>
       </c>
     </row>
     <row r="2570" spans="1:2">
@@ -21175,7 +21175,7 @@
         <v>2604</v>
       </c>
       <c r="B2604">
-        <v>34.80247891207342</v>
+        <v>34.80247891207341</v>
       </c>
     </row>
     <row r="2605" spans="1:2">
@@ -21391,7 +21391,7 @@
         <v>2631</v>
       </c>
       <c r="B2631">
-        <v>50.30476457310394</v>
+        <v>50.30476457310393</v>
       </c>
     </row>
     <row r="2632" spans="1:2">
@@ -21423,7 +21423,7 @@
         <v>2635</v>
       </c>
       <c r="B2635">
-        <v>39.38317924635025</v>
+        <v>39.38317924635024</v>
       </c>
     </row>
     <row r="2636" spans="1:2">
@@ -21719,7 +21719,7 @@
         <v>2672</v>
       </c>
       <c r="B2672">
-        <v>0.2041081525915393</v>
+        <v>0.2041081525915392</v>
       </c>
     </row>
     <row r="2673" spans="1:2">
@@ -21815,7 +21815,7 @@
         <v>2684</v>
       </c>
       <c r="B2684">
-        <v>7.485737697903547</v>
+        <v>7.485737697903546</v>
       </c>
     </row>
     <row r="2685" spans="1:2">
@@ -21951,7 +21951,7 @@
         <v>2701</v>
       </c>
       <c r="B2701">
-        <v>22.14336331840821</v>
+        <v>22.1433633184082</v>
       </c>
     </row>
     <row r="2702" spans="1:2">
@@ -22055,7 +22055,7 @@
         <v>2714</v>
       </c>
       <c r="B2714">
-        <v>0.8879114644115046</v>
+        <v>0.8879114644115045</v>
       </c>
     </row>
     <row r="2715" spans="1:2">
@@ -22143,7 +22143,7 @@
         <v>2725</v>
       </c>
       <c r="B2725">
-        <v>39.42362304968551</v>
+        <v>39.4236230496855</v>
       </c>
     </row>
     <row r="2726" spans="1:2">
@@ -22375,7 +22375,7 @@
         <v>2754</v>
       </c>
       <c r="B2754">
-        <v>43.1766907707827</v>
+        <v>43.17669077078269</v>
       </c>
     </row>
     <row r="2755" spans="1:2">
@@ -22503,7 +22503,7 @@
         <v>2770</v>
       </c>
       <c r="B2770">
-        <v>43.53804736145214</v>
+        <v>43.53804736145213</v>
       </c>
     </row>
     <row r="2771" spans="1:2">
@@ -22535,7 +22535,7 @@
         <v>2774</v>
       </c>
       <c r="B2774">
-        <v>60.38318452162894</v>
+        <v>60.38318452162893</v>
       </c>
     </row>
     <row r="2775" spans="1:2">
@@ -22759,7 +22759,7 @@
         <v>2802</v>
       </c>
       <c r="B2802">
-        <v>26.26936393620196</v>
+        <v>26.26936393620195</v>
       </c>
     </row>
     <row r="2803" spans="1:2">
@@ -22823,7 +22823,7 @@
         <v>2810</v>
       </c>
       <c r="B2810">
-        <v>17.120946314661</v>
+        <v>17.12094631466099</v>
       </c>
     </row>
     <row r="2811" spans="1:2">
@@ -22831,7 +22831,7 @@
         <v>2811</v>
       </c>
       <c r="B2811">
-        <v>21.43958252616685</v>
+        <v>21.43958252616684</v>
       </c>
     </row>
     <row r="2812" spans="1:2">
@@ -23095,7 +23095,7 @@
         <v>2844</v>
       </c>
       <c r="B2844">
-        <v>20.72451849893704</v>
+        <v>20.72451849893703</v>
       </c>
     </row>
     <row r="2845" spans="1:2">
@@ -23119,7 +23119,7 @@
         <v>2847</v>
       </c>
       <c r="B2847">
-        <v>33.7222190635677</v>
+        <v>33.72221906356769</v>
       </c>
     </row>
     <row r="2848" spans="1:2">
@@ -23271,7 +23271,7 @@
         <v>2866</v>
       </c>
       <c r="B2866">
-        <v>51.20683723010356</v>
+        <v>51.20683723010355</v>
       </c>
     </row>
     <row r="2867" spans="1:2">
@@ -23311,7 +23311,7 @@
         <v>2871</v>
       </c>
       <c r="B2871">
-        <v>70.16472350799</v>
+        <v>70.16472350798999</v>
       </c>
     </row>
     <row r="2872" spans="1:2">
@@ -23351,7 +23351,7 @@
         <v>2876</v>
       </c>
       <c r="B2876">
-        <v>43.76986655303326</v>
+        <v>43.76986655303325</v>
       </c>
     </row>
     <row r="2877" spans="1:2">
@@ -23447,7 +23447,7 @@
         <v>2888</v>
       </c>
       <c r="B2888">
-        <v>34.73096957864005</v>
+        <v>34.73096957864004</v>
       </c>
     </row>
     <row r="2889" spans="1:2">
@@ -23471,7 +23471,7 @@
         <v>2891</v>
       </c>
       <c r="B2891">
-        <v>48.7280423851059</v>
+        <v>48.72804238510589</v>
       </c>
     </row>
     <row r="2892" spans="1:2">
@@ -23479,7 +23479,7 @@
         <v>2892</v>
       </c>
       <c r="B2892">
-        <v>53.98896060011571</v>
+        <v>53.9889606001157</v>
       </c>
     </row>
     <row r="2893" spans="1:2">
@@ -23519,7 +23519,7 @@
         <v>2897</v>
       </c>
       <c r="B2897">
-        <v>86.80178023071726</v>
+        <v>86.80178023071724</v>
       </c>
     </row>
     <row r="2898" spans="1:2">
@@ -23535,7 +23535,7 @@
         <v>2899</v>
       </c>
       <c r="B2899">
-        <v>55.47893376066999</v>
+        <v>55.47893376066998</v>
       </c>
     </row>
     <row r="2900" spans="1:2">
@@ -23575,7 +23575,7 @@
         <v>2904</v>
       </c>
       <c r="B2904">
-        <v>34.6289808571859</v>
+        <v>34.62898085718589</v>
       </c>
     </row>
     <row r="2905" spans="1:2">
@@ -23623,7 +23623,7 @@
         <v>2910</v>
       </c>
       <c r="B2910">
-        <v>51.65758048756471</v>
+        <v>51.6575804875647</v>
       </c>
     </row>
     <row r="2911" spans="1:2">
@@ -23743,7 +23743,7 @@
         <v>2925</v>
       </c>
       <c r="B2925">
-        <v>85.59901668805109</v>
+        <v>85.59901668805108</v>
       </c>
     </row>
     <row r="2926" spans="1:2">
@@ -23823,7 +23823,7 @@
         <v>2935</v>
       </c>
       <c r="B2935">
-        <v>29.60691553868509</v>
+        <v>29.60691553868508</v>
       </c>
     </row>
     <row r="2936" spans="1:2">
@@ -23911,7 +23911,7 @@
         <v>2946</v>
       </c>
       <c r="B2946">
-        <v>53.30610508003478</v>
+        <v>53.30610508003477</v>
       </c>
     </row>
     <row r="2947" spans="1:2">
@@ -23959,7 +23959,7 @@
         <v>2952</v>
       </c>
       <c r="B2952">
-        <v>18.55251041721008</v>
+        <v>18.55251041721007</v>
       </c>
     </row>
     <row r="2953" spans="1:2">
@@ -23975,7 +23975,7 @@
         <v>2954</v>
       </c>
       <c r="B2954">
-        <v>12.0983534682906</v>
+        <v>12.09835346829059</v>
       </c>
     </row>
     <row r="2955" spans="1:2">
@@ -24151,7 +24151,7 @@
         <v>2976</v>
       </c>
       <c r="B2976">
-        <v>17.40639750631715</v>
+        <v>17.40639750631714</v>
       </c>
     </row>
     <row r="2977" spans="1:2">
@@ -24303,7 +24303,7 @@
         <v>2995</v>
       </c>
       <c r="B2995">
-        <v>40.99331153275568</v>
+        <v>40.99331153275567</v>
       </c>
     </row>
     <row r="2996" spans="1:2">
@@ -24343,7 +24343,7 @@
         <v>3000</v>
       </c>
       <c r="B3000">
-        <v>18.55901659426836</v>
+        <v>18.55901659426835</v>
       </c>
     </row>
     <row r="3001" spans="1:2">
@@ -24423,7 +24423,7 @@
         <v>3010</v>
       </c>
       <c r="B3010">
-        <v>39.9051387662061</v>
+        <v>39.90513876620609</v>
       </c>
     </row>
     <row r="3011" spans="1:2">
@@ -24487,7 +24487,7 @@
         <v>3018</v>
       </c>
       <c r="B3018">
-        <v>47.76471788102606</v>
+        <v>47.76471788102605</v>
       </c>
     </row>
     <row r="3019" spans="1:2">
@@ -24591,7 +24591,7 @@
         <v>3031</v>
       </c>
       <c r="B3031">
-        <v>51.52013017043254</v>
+        <v>51.52013017043253</v>
       </c>
     </row>
     <row r="3032" spans="1:2">
@@ -24615,7 +24615,7 @@
         <v>3034</v>
       </c>
       <c r="B3034">
-        <v>81.43564951282802</v>
+        <v>81.43564951282801</v>
       </c>
     </row>
     <row r="3035" spans="1:2">
@@ -24719,7 +24719,7 @@
         <v>3047</v>
       </c>
       <c r="B3047">
-        <v>65.37066745756772</v>
+        <v>65.37066745756771</v>
       </c>
     </row>
     <row r="3048" spans="1:2">
@@ -24879,7 +24879,7 @@
         <v>3067</v>
       </c>
       <c r="B3067">
-        <v>68.46110156025161</v>
+        <v>68.46110156025159</v>
       </c>
     </row>
     <row r="3068" spans="1:2">
@@ -24895,7 +24895,7 @@
         <v>3069</v>
       </c>
       <c r="B3069">
-        <v>50.95420999477748</v>
+        <v>50.95420999477747</v>
       </c>
     </row>
     <row r="3070" spans="1:2">
@@ -24903,7 +24903,7 @@
         <v>3070</v>
       </c>
       <c r="B3070">
-        <v>47.02090358490357</v>
+        <v>47.02090358490356</v>
       </c>
     </row>
     <row r="3071" spans="1:2">
@@ -24975,7 +24975,7 @@
         <v>3079</v>
       </c>
       <c r="B3079">
-        <v>43.18899975440648</v>
+        <v>43.18899975440647</v>
       </c>
     </row>
     <row r="3080" spans="1:2">
@@ -24983,7 +24983,7 @@
         <v>3080</v>
       </c>
       <c r="B3080">
-        <v>45.39787617279704</v>
+        <v>45.39787617279703</v>
       </c>
     </row>
     <row r="3081" spans="1:2">
@@ -25039,7 +25039,7 @@
         <v>3087</v>
       </c>
       <c r="B3087">
-        <v>84.91616116797016</v>
+        <v>84.91616116797015</v>
       </c>
     </row>
     <row r="3088" spans="1:2">
@@ -25071,7 +25071,7 @@
         <v>3091</v>
       </c>
       <c r="B3091">
-        <v>75.20173544946255</v>
+        <v>75.20173544946253</v>
       </c>
     </row>
     <row r="3092" spans="1:2">
@@ -25359,7 +25359,7 @@
         <v>3127</v>
       </c>
       <c r="B3127">
-        <v>32.05581713773929</v>
+        <v>32.05581713773928</v>
       </c>
     </row>
     <row r="3128" spans="1:2">
@@ -25391,7 +25391,7 @@
         <v>3131</v>
       </c>
       <c r="B3131">
-        <v>63.77665407828866</v>
+        <v>63.77665407828865</v>
       </c>
     </row>
     <row r="3132" spans="1:2">
@@ -25479,7 +25479,7 @@
         <v>3142</v>
       </c>
       <c r="B3142">
-        <v>48.36082437366324</v>
+        <v>48.36082437366323</v>
       </c>
     </row>
     <row r="3143" spans="1:2">
@@ -25543,7 +25543,7 @@
         <v>3150</v>
       </c>
       <c r="B3150">
-        <v>25.93189263518342</v>
+        <v>25.93189263518341</v>
       </c>
     </row>
     <row r="3151" spans="1:2">
@@ -25615,7 +25615,7 @@
         <v>3159</v>
       </c>
       <c r="B3159">
-        <v>120.1318702445561</v>
+        <v>120.131870244556</v>
       </c>
     </row>
     <row r="3160" spans="1:2">
@@ -25695,7 +25695,7 @@
         <v>3169</v>
       </c>
       <c r="B3169">
-        <v>83.25034538421907</v>
+        <v>83.25034538421906</v>
       </c>
     </row>
     <row r="3170" spans="1:2">
@@ -25831,7 +25831,7 @@
         <v>3186</v>
       </c>
       <c r="B3186">
-        <v>91.22363606203965</v>
+        <v>91.22363606203962</v>
       </c>
     </row>
     <row r="3187" spans="1:2">
@@ -25951,7 +25951,7 @@
         <v>3201</v>
       </c>
       <c r="B3201">
-        <v>37.81612840262803</v>
+        <v>37.81612840262802</v>
       </c>
     </row>
     <row r="3202" spans="1:2">
@@ -25967,7 +25967,7 @@
         <v>3203</v>
       </c>
       <c r="B3203">
-        <v>45.78795372525529</v>
+        <v>45.78795372525528</v>
       </c>
     </row>
     <row r="3204" spans="1:2">
@@ -25975,7 +25975,7 @@
         <v>3204</v>
       </c>
       <c r="B3204">
-        <v>49.65268151208245</v>
+        <v>49.65268151208244</v>
       </c>
     </row>
     <row r="3205" spans="1:2">
@@ -25983,7 +25983,7 @@
         <v>3205</v>
       </c>
       <c r="B3205">
-        <v>50.11895753459265</v>
+        <v>50.11895753459264</v>
       </c>
     </row>
     <row r="3206" spans="1:2">
@@ -25991,7 +25991,7 @@
         <v>3206</v>
       </c>
       <c r="B3206">
-        <v>47.25770498414193</v>
+        <v>47.25770498414192</v>
       </c>
     </row>
     <row r="3207" spans="1:2">
@@ -26079,7 +26079,7 @@
         <v>3217</v>
       </c>
       <c r="B3217">
-        <v>20.36023119788098</v>
+        <v>20.36023119788097</v>
       </c>
     </row>
     <row r="3218" spans="1:2">
@@ -26223,7 +26223,7 @@
         <v>3235</v>
       </c>
       <c r="B3235">
-        <v>61.52235164890559</v>
+        <v>61.52235164890558</v>
       </c>
     </row>
     <row r="3236" spans="1:2">
@@ -26439,7 +26439,7 @@
         <v>3262</v>
       </c>
       <c r="B3262">
-        <v>61.08127973572027</v>
+        <v>61.08127973572026</v>
       </c>
     </row>
     <row r="3263" spans="1:2">
@@ -26615,7 +26615,7 @@
         <v>3284</v>
       </c>
       <c r="B3284">
-        <v>87.25955719310628</v>
+        <v>87.25955719310626</v>
       </c>
     </row>
     <row r="3285" spans="1:2">
@@ -26679,7 +26679,7 @@
         <v>3292</v>
       </c>
       <c r="B3292">
-        <v>55.7336124932667</v>
+        <v>55.73361249326669</v>
       </c>
     </row>
     <row r="3293" spans="1:2">
@@ -26687,7 +26687,7 @@
         <v>3293</v>
       </c>
       <c r="B3293">
-        <v>47.3497292902816</v>
+        <v>47.34972929028159</v>
       </c>
     </row>
     <row r="3294" spans="1:2">
@@ -26759,7 +26759,7 @@
         <v>3302</v>
       </c>
       <c r="B3302">
-        <v>31.92803816488295</v>
+        <v>31.92803816488294</v>
       </c>
     </row>
     <row r="3303" spans="1:2">
@@ -26767,7 +26767,7 @@
         <v>3303</v>
       </c>
       <c r="B3303">
-        <v>35.89797845458953</v>
+        <v>35.89797845458952</v>
       </c>
     </row>
     <row r="3304" spans="1:2">
@@ -26791,7 +26791,7 @@
         <v>3306</v>
       </c>
       <c r="B3306">
-        <v>33.54373880102294</v>
+        <v>33.54373880102293</v>
       </c>
     </row>
     <row r="3307" spans="1:2">
@@ -26895,7 +26895,7 @@
         <v>3319</v>
       </c>
       <c r="B3319">
-        <v>8.199336369940056</v>
+        <v>8.199336369940054</v>
       </c>
     </row>
     <row r="3320" spans="1:2">
@@ -27015,7 +27015,7 @@
         <v>3334</v>
       </c>
       <c r="B3334">
-        <v>12.70207980793297</v>
+        <v>12.70207980793296</v>
       </c>
     </row>
     <row r="3335" spans="1:2">
@@ -27063,7 +27063,7 @@
         <v>3340</v>
       </c>
       <c r="B3340">
-        <v>2.362296176419388</v>
+        <v>2.362296176419387</v>
       </c>
     </row>
     <row r="3341" spans="1:2">
@@ -27151,7 +27151,7 @@
         <v>3351</v>
       </c>
       <c r="B3351">
-        <v>23.85741859512295</v>
+        <v>23.85741859512294</v>
       </c>
     </row>
     <row r="3352" spans="1:2">
@@ -27207,7 +27207,7 @@
         <v>3358</v>
       </c>
       <c r="B3358">
-        <v>7.739537217384272</v>
+        <v>7.739537217384271</v>
       </c>
     </row>
     <row r="3359" spans="1:2">
@@ -27287,7 +27287,7 @@
         <v>3368</v>
       </c>
       <c r="B3368">
-        <v>18.67091111682926</v>
+        <v>18.67091111682925</v>
       </c>
     </row>
     <row r="3369" spans="1:2">
@@ -27439,7 +27439,7 @@
         <v>3387</v>
       </c>
       <c r="B3387">
-        <v>0.8427199102499252</v>
+        <v>0.8427199102499251</v>
       </c>
     </row>
     <row r="3388" spans="1:2">
@@ -27487,7 +27487,7 @@
         <v>3393</v>
       </c>
       <c r="B3393">
-        <v>34.01001482353314</v>
+        <v>34.01001482353313</v>
       </c>
     </row>
     <row r="3394" spans="1:2">
@@ -27503,7 +27503,7 @@
         <v>3395</v>
       </c>
       <c r="B3395">
-        <v>46.72548797793293</v>
+        <v>46.72548797793292</v>
       </c>
     </row>
     <row r="3396" spans="1:2">
@@ -27519,7 +27519,7 @@
         <v>3397</v>
       </c>
       <c r="B3397">
-        <v>49.13306656053588</v>
+        <v>49.13306656053587</v>
       </c>
     </row>
     <row r="3398" spans="1:2">
@@ -27543,7 +27543,7 @@
         <v>3400</v>
       </c>
       <c r="B3400">
-        <v>61.26210456657432</v>
+        <v>61.26210456657431</v>
       </c>
     </row>
     <row r="3401" spans="1:2">
@@ -27615,7 +27615,7 @@
         <v>3409</v>
       </c>
       <c r="B3409">
-        <v>15.81294096201155</v>
+        <v>15.81294096201154</v>
       </c>
     </row>
     <row r="3410" spans="1:2">
@@ -27799,7 +27799,7 @@
         <v>3432</v>
       </c>
       <c r="B3432">
-        <v>29.65292769175492</v>
+        <v>29.65292769175491</v>
       </c>
     </row>
     <row r="3433" spans="1:2">
@@ -27807,7 +27807,7 @@
         <v>3433</v>
       </c>
       <c r="B3433">
-        <v>28.68019560733405</v>
+        <v>28.68019560733404</v>
       </c>
     </row>
     <row r="3434" spans="1:2">
@@ -27815,7 +27815,7 @@
         <v>3434</v>
       </c>
       <c r="B3434">
-        <v>22.5700161364914</v>
+        <v>22.57001613649139</v>
       </c>
     </row>
     <row r="3435" spans="1:2">
@@ -27935,7 +27935,7 @@
         <v>3449</v>
       </c>
       <c r="B3449">
-        <v>136.1136201248366</v>
+        <v>136.1136201248365</v>
       </c>
     </row>
     <row r="3450" spans="1:2">
@@ -27943,7 +27943,7 @@
         <v>3450</v>
       </c>
       <c r="B3450">
-        <v>89.36439339277206</v>
+        <v>89.36439339277204</v>
       </c>
     </row>
     <row r="3451" spans="1:2">
@@ -27951,7 +27951,7 @@
         <v>3451</v>
       </c>
       <c r="B3451">
-        <v>86.36803509349846</v>
+        <v>86.36803509349845</v>
       </c>
     </row>
     <row r="3452" spans="1:2">
@@ -28047,7 +28047,7 @@
         <v>3463</v>
       </c>
       <c r="B3463">
-        <v>73.71938213591346</v>
+        <v>73.71938213591345</v>
       </c>
     </row>
     <row r="3464" spans="1:2">
@@ -28071,7 +28071,7 @@
         <v>3466</v>
       </c>
       <c r="B3466">
-        <v>112.1969718728002</v>
+        <v>112.1969718728001</v>
       </c>
     </row>
     <row r="3467" spans="1:2">
@@ -28135,7 +28135,7 @@
         <v>3474</v>
       </c>
       <c r="B3474">
-        <v>103.3740682539004</v>
+        <v>103.3740682539003</v>
       </c>
     </row>
     <row r="3475" spans="1:2">
@@ -28151,7 +28151,7 @@
         <v>3476</v>
       </c>
       <c r="B3476">
-        <v>73.44653299891975</v>
+        <v>73.44653299891974</v>
       </c>
     </row>
     <row r="3477" spans="1:2">
@@ -28239,7 +28239,7 @@
         <v>3487</v>
       </c>
       <c r="B3487">
-        <v>51.6857153072762</v>
+        <v>51.68571530727619</v>
       </c>
     </row>
     <row r="3488" spans="1:2">
@@ -28247,7 +28247,7 @@
         <v>3488</v>
       </c>
       <c r="B3488">
-        <v>59.98314255385621</v>
+        <v>59.9831425538562</v>
       </c>
     </row>
     <row r="3489" spans="1:2">
@@ -28383,7 +28383,7 @@
         <v>3505</v>
       </c>
       <c r="B3505">
-        <v>66.49869788537524</v>
+        <v>66.49869788537522</v>
       </c>
     </row>
     <row r="3506" spans="1:2">
@@ -28431,7 +28431,7 @@
         <v>3511</v>
       </c>
       <c r="B3511">
-        <v>68.11938072917248</v>
+        <v>68.11938072917246</v>
       </c>
     </row>
     <row r="3512" spans="1:2">
@@ -28783,7 +28783,7 @@
         <v>3555</v>
       </c>
       <c r="B3555">
-        <v>68.84531769193663</v>
+        <v>68.84531769193661</v>
       </c>
     </row>
     <row r="3556" spans="1:2">
@@ -28799,7 +28799,7 @@
         <v>3557</v>
       </c>
       <c r="B3557">
-        <v>71.97883323730373</v>
+        <v>71.97883323730372</v>
       </c>
     </row>
     <row r="3558" spans="1:2">
@@ -28807,7 +28807,7 @@
         <v>3558</v>
       </c>
       <c r="B3558">
-        <v>74.33336596190898</v>
+        <v>74.33336596190897</v>
       </c>
     </row>
     <row r="3559" spans="1:2">
@@ -28895,7 +28895,7 @@
         <v>3569</v>
       </c>
       <c r="B3569">
-        <v>181.1835498053716</v>
+        <v>181.1835498053715</v>
       </c>
     </row>
     <row r="3570" spans="1:2">
@@ -28951,7 +28951,7 @@
         <v>3576</v>
       </c>
       <c r="B3576">
-        <v>75.4871866411187</v>
+        <v>75.48718664111868</v>
       </c>
     </row>
     <row r="3577" spans="1:2">
@@ -29127,7 +29127,7 @@
         <v>3598</v>
       </c>
       <c r="B3598">
-        <v>100.7121040097394</v>
+        <v>100.7121040097393</v>
       </c>
     </row>
     <row r="3599" spans="1:2">
@@ -29151,7 +29151,7 @@
         <v>3601</v>
       </c>
       <c r="B3601">
-        <v>81.32164487878876</v>
+        <v>81.32164487878875</v>
       </c>
     </row>
     <row r="3602" spans="1:2">
@@ -29191,7 +29191,7 @@
         <v>3606</v>
       </c>
       <c r="B3606">
-        <v>89.00743286768254</v>
+        <v>89.00743286768252</v>
       </c>
     </row>
     <row r="3607" spans="1:2">
@@ -29343,7 +29343,7 @@
         <v>3625</v>
       </c>
       <c r="B3625">
-        <v>96.12554225468929</v>
+        <v>96.12554225468928</v>
       </c>
     </row>
     <row r="3626" spans="1:2">
@@ -29359,7 +29359,7 @@
         <v>3627</v>
       </c>
       <c r="B3627">
-        <v>78.78628732332946</v>
+        <v>78.78628732332945</v>
       </c>
     </row>
     <row r="3628" spans="1:2">
@@ -29367,7 +29367,7 @@
         <v>3628</v>
       </c>
       <c r="B3628">
-        <v>71.37276232935207</v>
+        <v>71.37276232935206</v>
       </c>
     </row>
     <row r="3629" spans="1:2">
@@ -29519,7 +29519,7 @@
         <v>3647</v>
       </c>
       <c r="B3647">
-        <v>60.11854137371775</v>
+        <v>60.11854137371774</v>
       </c>
     </row>
     <row r="3648" spans="1:2">
@@ -29527,7 +29527,7 @@
         <v>3648</v>
       </c>
       <c r="B3648">
-        <v>49.9123424523364</v>
+        <v>49.91234245233639</v>
       </c>
     </row>
     <row r="3649" spans="1:2">
@@ -29551,7 +29551,7 @@
         <v>3651</v>
       </c>
       <c r="B3651">
-        <v>51.82814783206561</v>
+        <v>51.8281478320656</v>
       </c>
     </row>
     <row r="3652" spans="1:2">
@@ -29623,7 +29623,7 @@
         <v>3660</v>
       </c>
       <c r="B3660">
-        <v>57.18841712918162</v>
+        <v>57.18841712918161</v>
       </c>
     </row>
     <row r="3661" spans="1:2">
@@ -29703,7 +29703,7 @@
         <v>3670</v>
       </c>
       <c r="B3670">
-        <v>37.03157723213161</v>
+        <v>37.0315772321316</v>
       </c>
     </row>
     <row r="3671" spans="1:2">
@@ -29767,7 +29767,7 @@
         <v>3678</v>
       </c>
       <c r="B3678">
-        <v>16.62934895441046</v>
+        <v>16.62934895441045</v>
       </c>
     </row>
     <row r="3679" spans="1:2">
@@ -29775,7 +29775,7 @@
         <v>3679</v>
       </c>
       <c r="B3679">
-        <v>25.24508065608056</v>
+        <v>25.24508065608055</v>
       </c>
     </row>
     <row r="3680" spans="1:2">
@@ -29879,7 +29879,7 @@
         <v>3692</v>
       </c>
       <c r="B3692">
-        <v>45.46440329857316</v>
+        <v>45.46440329857315</v>
       </c>
     </row>
     <row r="3693" spans="1:2">
@@ -29967,7 +29967,7 @@
         <v>3703</v>
       </c>
       <c r="B3703">
-        <v>53.55550853393558</v>
+        <v>53.55550853393557</v>
       </c>
     </row>
     <row r="3704" spans="1:2">
@@ -29983,7 +29983,7 @@
         <v>3705</v>
       </c>
       <c r="B3705">
-        <v>74.89108014848152</v>
+        <v>74.89108014848151</v>
       </c>
     </row>
     <row r="3706" spans="1:2">
@@ -30055,7 +30055,7 @@
         <v>3714</v>
       </c>
       <c r="B3714">
-        <v>88.25101651689761</v>
+        <v>88.25101651689759</v>
       </c>
     </row>
     <row r="3715" spans="1:2">
@@ -30167,7 +30167,7 @@
         <v>3728</v>
       </c>
       <c r="B3728">
-        <v>63.36899226351073</v>
+        <v>63.36899226351072</v>
       </c>
     </row>
     <row r="3729" spans="1:2">
@@ -30175,7 +30175,7 @@
         <v>3729</v>
       </c>
       <c r="B3729">
-        <v>69.78314501565293</v>
+        <v>69.78314501565292</v>
       </c>
     </row>
     <row r="3730" spans="1:2">
@@ -30207,7 +30207,7 @@
         <v>3733</v>
       </c>
       <c r="B3733">
-        <v>112.6374576439082</v>
+        <v>112.6374576439081</v>
       </c>
     </row>
     <row r="3734" spans="1:2">
@@ -30271,7 +30271,7 @@
         <v>3741</v>
       </c>
       <c r="B3741">
-        <v>73.96849251877561</v>
+        <v>73.96849251877559</v>
       </c>
     </row>
     <row r="3742" spans="1:2">
@@ -30295,7 +30295,7 @@
         <v>3744</v>
       </c>
       <c r="B3744">
-        <v>78.63594188049619</v>
+        <v>78.63594188049618</v>
       </c>
     </row>
     <row r="3745" spans="1:2">
@@ -30343,7 +30343,7 @@
         <v>3750</v>
       </c>
       <c r="B3750">
-        <v>81.62174962237798</v>
+        <v>81.62174962237796</v>
       </c>
     </row>
     <row r="3751" spans="1:2">
@@ -30559,7 +30559,7 @@
         <v>3777</v>
       </c>
       <c r="B3777">
-        <v>148.6046008636218</v>
+        <v>148.6046008636217</v>
       </c>
     </row>
     <row r="3778" spans="1:2">
@@ -30719,7 +30719,7 @@
         <v>3797</v>
       </c>
       <c r="B3797">
-        <v>95.73810234157899</v>
+        <v>95.73810234157898</v>
       </c>
     </row>
     <row r="3798" spans="1:2">
@@ -30903,7 +30903,7 @@
         <v>3820</v>
       </c>
       <c r="B3820">
-        <v>29.47327514505552</v>
+        <v>29.47327514505551</v>
       </c>
     </row>
     <row r="3821" spans="1:2">
@@ -30983,7 +30983,7 @@
         <v>3830</v>
       </c>
       <c r="B3830">
-        <v>68.47839275153262</v>
+        <v>68.47839275153261</v>
       </c>
     </row>
     <row r="3831" spans="1:2">
@@ -31167,7 +31167,7 @@
         <v>3853</v>
       </c>
       <c r="B3853">
-        <v>68.98306108010746</v>
+        <v>68.98306108010745</v>
       </c>
     </row>
     <row r="3854" spans="1:2">
@@ -31303,7 +31303,7 @@
         <v>3870</v>
       </c>
       <c r="B3870">
-        <v>48.96718835265356</v>
+        <v>48.96718835265355</v>
       </c>
     </row>
     <row r="3871" spans="1:2">
@@ -31311,7 +31311,7 @@
         <v>3871</v>
       </c>
       <c r="B3871">
-        <v>55.03581035021404</v>
+        <v>55.03581035021403</v>
       </c>
     </row>
     <row r="3872" spans="1:2">
@@ -31415,7 +31415,7 @@
         <v>3884</v>
       </c>
       <c r="B3884">
-        <v>83.72658582204376</v>
+        <v>83.72658582204375</v>
       </c>
     </row>
     <row r="3885" spans="1:2">
@@ -31559,7 +31559,7 @@
         <v>3902</v>
       </c>
       <c r="B3902">
-        <v>160.4941998310739</v>
+        <v>160.4941998310738</v>
       </c>
     </row>
     <row r="3903" spans="1:2">
@@ -32223,7 +32223,7 @@
         <v>3985</v>
       </c>
       <c r="B3985">
-        <v>130.9368132979226</v>
+        <v>130.9368132979225</v>
       </c>
     </row>
     <row r="3986" spans="1:2">
@@ -32295,7 +32295,7 @@
         <v>3994</v>
       </c>
       <c r="B3994">
-        <v>161.5193623243113</v>
+        <v>161.5193623243112</v>
       </c>
     </row>
     <row r="3995" spans="1:2">
@@ -32655,7 +32655,7 @@
         <v>4039</v>
       </c>
       <c r="B4039">
-        <v>106.0585989680383</v>
+        <v>106.0585989680382</v>
       </c>
     </row>
     <row r="4040" spans="1:2">
@@ -32911,7 +32911,7 @@
         <v>4071</v>
       </c>
       <c r="B4071">
-        <v>319.4474321408664</v>
+        <v>319.4474321408663</v>
       </c>
     </row>
     <row r="4072" spans="1:2">
@@ -32935,7 +32935,7 @@
         <v>4074</v>
       </c>
       <c r="B4074">
-        <v>134.5744110297872</v>
+        <v>134.5744110297871</v>
       </c>
     </row>
     <row r="4075" spans="1:2">
@@ -33007,7 +33007,7 @@
         <v>4083</v>
       </c>
       <c r="B4083">
-        <v>102.2958599026653</v>
+        <v>102.2958599026652</v>
       </c>
     </row>
     <row r="4084" spans="1:2">
@@ -33055,7 +33055,7 @@
         <v>4089</v>
       </c>
       <c r="B4089">
-        <v>186.5517320205314</v>
+        <v>186.5517320205313</v>
       </c>
     </row>
     <row r="4090" spans="1:2">
@@ -33087,7 +33087,7 @@
         <v>4093</v>
       </c>
       <c r="B4093">
-        <v>262.7041899194114</v>
+        <v>262.7041899194113</v>
       </c>
     </row>
     <row r="4094" spans="1:2">
@@ -33207,7 +33207,7 @@
         <v>4108</v>
       </c>
       <c r="B4108">
-        <v>96.66127611336223</v>
+        <v>96.66127611336222</v>
       </c>
     </row>
     <row r="4109" spans="1:2">
@@ -33287,7 +33287,7 @@
         <v>4118</v>
       </c>
       <c r="B4118">
-        <v>268.9732725074162</v>
+        <v>268.9732725074161</v>
       </c>
     </row>
     <row r="4119" spans="1:2">
@@ -33471,7 +33471,7 @@
         <v>4141</v>
       </c>
       <c r="B4141">
-        <v>224.9194201179201</v>
+        <v>224.91942011792</v>
       </c>
     </row>
     <row r="4142" spans="1:2">
@@ -33535,7 +33535,7 @@
         <v>4149</v>
       </c>
       <c r="B4149">
-        <v>98.3417454490464</v>
+        <v>98.34174544904636</v>
       </c>
     </row>
     <row r="4150" spans="1:2">
@@ -33575,7 +33575,7 @@
         <v>4154</v>
       </c>
       <c r="B4154">
-        <v>93.99872572712393</v>
+        <v>93.9987257271239</v>
       </c>
     </row>
     <row r="4155" spans="1:2">
@@ -33847,7 +33847,7 @@
         <v>4188</v>
       </c>
       <c r="B4188">
-        <v>155.0861599546561</v>
+        <v>155.086159954656</v>
       </c>
     </row>
     <row r="4189" spans="1:2">
@@ -33943,7 +33943,7 @@
         <v>4200</v>
       </c>
       <c r="B4200">
-        <v>127.3862576645404</v>
+        <v>127.3862576645403</v>
       </c>
     </row>
     <row r="4201" spans="1:2">
@@ -33959,7 +33959,7 @@
         <v>4202</v>
       </c>
       <c r="B4202">
-        <v>117.8520706348095</v>
+        <v>117.8520706348094</v>
       </c>
     </row>
     <row r="4203" spans="1:2">
@@ -33975,7 +33975,7 @@
         <v>4204</v>
       </c>
       <c r="B4204">
-        <v>108.0230541401853</v>
+        <v>108.0230541401852</v>
       </c>
     </row>
     <row r="4205" spans="1:2">
@@ -34055,7 +34055,7 @@
         <v>4214</v>
       </c>
       <c r="B4214">
-        <v>202.5164837805696</v>
+        <v>202.5164837805695</v>
       </c>
     </row>
     <row r="4215" spans="1:2">
@@ -34063,7 +34063,7 @@
         <v>4215</v>
       </c>
       <c r="B4215">
-        <v>220.3765259476306</v>
+        <v>220.3765259476305</v>
       </c>
     </row>
     <row r="4216" spans="1:2">
@@ -34143,7 +34143,7 @@
         <v>4225</v>
       </c>
       <c r="B4225">
-        <v>58.21299348034168</v>
+        <v>58.21299348034167</v>
       </c>
     </row>
     <row r="4226" spans="1:2">
@@ -34167,7 +34167,7 @@
         <v>4228</v>
       </c>
       <c r="B4228">
-        <v>54.25624138737486</v>
+        <v>54.25624138737485</v>
       </c>
     </row>
     <row r="4229" spans="1:2">
@@ -34263,7 +34263,7 @@
         <v>4240</v>
       </c>
       <c r="B4240">
-        <v>251.8265652484569</v>
+        <v>251.8265652484568</v>
       </c>
     </row>
     <row r="4241" spans="1:2">
@@ -34287,7 +34287,7 @@
         <v>4243</v>
       </c>
       <c r="B4243">
-        <v>118.4897932149366</v>
+        <v>118.4897932149365</v>
       </c>
     </row>
     <row r="4244" spans="1:2">
@@ -34391,7 +34391,7 @@
         <v>4256</v>
       </c>
       <c r="B4256">
-        <v>121.1001769562932</v>
+        <v>121.1001769562931</v>
       </c>
     </row>
     <row r="4257" spans="1:2">
@@ -34535,7 +34535,7 @@
         <v>4274</v>
       </c>
       <c r="B4274">
-        <v>89.4816218082366</v>
+        <v>89.48162180823658</v>
       </c>
     </row>
     <row r="4275" spans="1:2">
@@ -34823,7 +34823,7 @@
         <v>4310</v>
       </c>
       <c r="B4310">
-        <v>278.5857095044697</v>
+        <v>278.5857095044696</v>
       </c>
     </row>
     <row r="4311" spans="1:2">
@@ -34943,7 +34943,7 @@
         <v>4325</v>
       </c>
       <c r="B4325">
-        <v>81.50452120691344</v>
+        <v>81.50452120691342</v>
       </c>
     </row>
     <row r="4326" spans="1:2">
@@ -34951,7 +34951,7 @@
         <v>4326</v>
       </c>
       <c r="B4326">
-        <v>81.29057934869066</v>
+        <v>81.29057934869064</v>
       </c>
     </row>
     <row r="4327" spans="1:2">
@@ -34959,7 +34959,7 @@
         <v>4327</v>
       </c>
       <c r="B4327">
-        <v>82.74509091356691</v>
+        <v>82.7450909135669</v>
       </c>
     </row>
     <row r="4328" spans="1:2">
@@ -34975,7 +34975,7 @@
         <v>4329</v>
       </c>
       <c r="B4329">
-        <v>92.90527768187845</v>
+        <v>92.90527768187842</v>
       </c>
     </row>
     <row r="4330" spans="1:2">
@@ -35135,7 +35135,7 @@
         <v>4349</v>
       </c>
       <c r="B4349">
-        <v>88.04703907398931</v>
+        <v>88.0470390739893</v>
       </c>
     </row>
     <row r="4350" spans="1:2">
@@ -35143,7 +35143,7 @@
         <v>4350</v>
       </c>
       <c r="B4350">
-        <v>84.30422883924527</v>
+        <v>84.30422883924525</v>
       </c>
     </row>
     <row r="4351" spans="1:2">
@@ -35415,7 +35415,7 @@
         <v>4384</v>
       </c>
       <c r="B4384">
-        <v>256.6212074409565</v>
+        <v>256.6212074409564</v>
       </c>
     </row>
     <row r="4385" spans="1:2">
@@ -35471,7 +35471,7 @@
         <v>4391</v>
       </c>
       <c r="B4391">
-        <v>132.8291729945589</v>
+        <v>132.8291729945588</v>
       </c>
     </row>
     <row r="4392" spans="1:2">
@@ -35575,7 +35575,7 @@
         <v>4404</v>
       </c>
       <c r="B4404">
-        <v>248.9993089384909</v>
+        <v>248.9993089384908</v>
       </c>
     </row>
     <row r="4405" spans="1:2">
@@ -35975,7 +35975,7 @@
         <v>4454</v>
       </c>
       <c r="B4454">
-        <v>245.6245959283055</v>
+        <v>245.6245959283054</v>
       </c>
     </row>
     <row r="4455" spans="1:2">
@@ -36247,7 +36247,7 @@
         <v>4488</v>
       </c>
       <c r="B4488">
-        <v>128.2695737750657</v>
+        <v>128.2695737750656</v>
       </c>
     </row>
     <row r="4489" spans="1:2">
@@ -36327,7 +36327,7 @@
         <v>4498</v>
       </c>
       <c r="B4498">
-        <v>156.5896143829888</v>
+        <v>156.5896143829887</v>
       </c>
     </row>
     <row r="4499" spans="1:2">
@@ -36343,7 +36343,7 @@
         <v>4500</v>
       </c>
       <c r="B4500">
-        <v>184.2335401047202</v>
+        <v>184.2335401047201</v>
       </c>
     </row>
     <row r="4501" spans="1:2">
@@ -36455,7 +36455,7 @@
         <v>4514</v>
       </c>
       <c r="B4514">
-        <v>127.3824477410378</v>
+        <v>127.3824477410377</v>
       </c>
     </row>
     <row r="4515" spans="1:2">
@@ -36463,7 +36463,7 @@
         <v>4515</v>
       </c>
       <c r="B4515">
-        <v>125.3119008528954</v>
+        <v>125.3119008528953</v>
       </c>
     </row>
     <row r="4516" spans="1:2">
@@ -36519,7 +36519,7 @@
         <v>4522</v>
       </c>
       <c r="B4522">
-        <v>144.4550080272158</v>
+        <v>144.4550080272157</v>
       </c>
     </row>
     <row r="4523" spans="1:2">
@@ -36543,7 +36543,7 @@
         <v>4525</v>
       </c>
       <c r="B4525">
-        <v>157.3454445916964</v>
+        <v>157.3454445916963</v>
       </c>
     </row>
     <row r="4526" spans="1:2">
@@ -36831,7 +36831,7 @@
         <v>4561</v>
       </c>
       <c r="B4561">
-        <v>92.39650635876234</v>
+        <v>92.39650635876232</v>
       </c>
     </row>
     <row r="4562" spans="1:2">
@@ -36855,7 +36855,7 @@
         <v>4564</v>
       </c>
       <c r="B4564">
-        <v>83.43117021507312</v>
+        <v>83.43117021507311</v>
       </c>
     </row>
     <row r="4565" spans="1:2">
@@ -36975,7 +36975,7 @@
         <v>4579</v>
       </c>
       <c r="B4579">
-        <v>123.7779670365419</v>
+        <v>123.7779670365418</v>
       </c>
     </row>
     <row r="4580" spans="1:2">
@@ -37023,7 +37023,7 @@
         <v>4585</v>
       </c>
       <c r="B4585">
-        <v>83.79545751612918</v>
+        <v>83.79545751612916</v>
       </c>
     </row>
     <row r="4586" spans="1:2">
@@ -37031,7 +37031,7 @@
         <v>4586</v>
       </c>
       <c r="B4586">
-        <v>72.66432639673262</v>
+        <v>72.6643263967326</v>
       </c>
     </row>
     <row r="4587" spans="1:2">
@@ -37047,7 +37047,7 @@
         <v>4588</v>
       </c>
       <c r="B4588">
-        <v>85.1857865235386</v>
+        <v>85.18578652353858</v>
       </c>
     </row>
     <row r="4589" spans="1:2">
@@ -37199,7 +37199,7 @@
         <v>4607</v>
       </c>
       <c r="B4607">
-        <v>93.14969892812201</v>
+        <v>93.14969892812198</v>
       </c>
     </row>
     <row r="4608" spans="1:2">
@@ -37343,7 +37343,7 @@
         <v>4625</v>
       </c>
       <c r="B4625">
-        <v>166.7802805393211</v>
+        <v>166.780280539321</v>
       </c>
     </row>
     <row r="4626" spans="1:2">
@@ -37407,7 +37407,7 @@
         <v>4633</v>
       </c>
       <c r="B4633">
-        <v>130.0095365315981</v>
+        <v>130.009536531598</v>
       </c>
     </row>
     <row r="4634" spans="1:2">
@@ -37871,7 +37871,7 @@
         <v>4691</v>
       </c>
       <c r="B4691">
-        <v>85.5527114639426</v>
+        <v>85.55271146394259</v>
       </c>
     </row>
     <row r="4692" spans="1:2">
@@ -37991,7 +37991,7 @@
         <v>4706</v>
       </c>
       <c r="B4706">
-        <v>53.41571364849412</v>
+        <v>53.41571364849411</v>
       </c>
     </row>
     <row r="4707" spans="1:2">
@@ -38111,7 +38111,7 @@
         <v>4721</v>
       </c>
       <c r="B4721">
-        <v>234.490827169561</v>
+        <v>234.4908271695609</v>
       </c>
     </row>
     <row r="4722" spans="1:2">
@@ -38151,7 +38151,7 @@
         <v>4726</v>
       </c>
       <c r="B4726">
-        <v>100.9811432232305</v>
+        <v>100.9811432232304</v>
       </c>
     </row>
     <row r="4727" spans="1:2">
@@ -38439,7 +38439,7 @@
         <v>4762</v>
       </c>
       <c r="B4762">
-        <v>282.5767509089599</v>
+        <v>282.5767509089598</v>
       </c>
     </row>
     <row r="4763" spans="1:2">
@@ -38551,7 +38551,7 @@
         <v>4776</v>
       </c>
       <c r="B4776">
-        <v>138.5549018768856</v>
+        <v>138.5549018768855</v>
       </c>
     </row>
     <row r="4777" spans="1:2">
@@ -38615,7 +38615,7 @@
         <v>4784</v>
       </c>
       <c r="B4784">
-        <v>177.1801994172576</v>
+        <v>177.1801994172575</v>
       </c>
     </row>
     <row r="4785" spans="1:2">
@@ -38623,7 +38623,7 @@
         <v>4785</v>
       </c>
       <c r="B4785">
-        <v>217.1290057682242</v>
+        <v>217.1290057682241</v>
       </c>
     </row>
     <row r="4786" spans="1:2">
@@ -38671,7 +38671,7 @@
         <v>4791</v>
       </c>
       <c r="B4791">
-        <v>319.4474321408664</v>
+        <v>319.4474321408663</v>
       </c>
     </row>
     <row r="4792" spans="1:2">
@@ -38775,7 +38775,7 @@
         <v>4804</v>
       </c>
       <c r="B4804">
-        <v>136.2062305730536</v>
+        <v>136.2062305730535</v>
       </c>
     </row>
     <row r="4805" spans="1:2">
@@ -38807,7 +38807,7 @@
         <v>4808</v>
       </c>
       <c r="B4808">
-        <v>228.2501724723063</v>
+        <v>228.2501724723062</v>
       </c>
     </row>
     <row r="4809" spans="1:2">
@@ -38879,7 +38879,7 @@
         <v>4817</v>
       </c>
       <c r="B4817">
-        <v>285.1976852077083</v>
+        <v>285.1976852077082</v>
       </c>
     </row>
     <row r="4818" spans="1:2">
@@ -38991,7 +38991,7 @@
         <v>4831</v>
       </c>
       <c r="B4831">
-        <v>144.8272082463157</v>
+        <v>144.8272082463156</v>
       </c>
     </row>
     <row r="4832" spans="1:2">
@@ -39015,7 +39015,7 @@
         <v>4834</v>
       </c>
       <c r="B4834">
-        <v>165.1874394441967</v>
+        <v>165.1874394441966</v>
       </c>
     </row>
     <row r="4835" spans="1:2">
@@ -39311,7 +39311,7 @@
         <v>4871</v>
       </c>
       <c r="B4871">
-        <v>140.0425304691306</v>
+        <v>140.0425304691305</v>
       </c>
     </row>
     <row r="4872" spans="1:2">
@@ -39367,7 +39367,7 @@
         <v>4878</v>
       </c>
       <c r="B4878">
-        <v>140.9340525687384</v>
+        <v>140.9340525687383</v>
       </c>
     </row>
     <row r="4879" spans="1:2">
@@ -39487,7 +39487,7 @@
         <v>4893</v>
       </c>
       <c r="B4893">
-        <v>159.4283004634626</v>
+        <v>159.4283004634625</v>
       </c>
     </row>
     <row r="4894" spans="1:2">
@@ -39703,7 +39703,7 @@
         <v>4920</v>
       </c>
       <c r="B4920">
-        <v>135.4744321895162</v>
+        <v>135.4744321895161</v>
       </c>
     </row>
     <row r="4921" spans="1:2">
@@ -39815,7 +39815,7 @@
         <v>4934</v>
       </c>
       <c r="B4934">
-        <v>277.1024769778046</v>
+        <v>277.1024769778045</v>
       </c>
     </row>
     <row r="4935" spans="1:2">
@@ -39887,7 +39887,7 @@
         <v>4943</v>
       </c>
       <c r="B4943">
-        <v>136.4374636225574</v>
+        <v>136.4374636225573</v>
       </c>
     </row>
     <row r="4944" spans="1:2">
@@ -39935,7 +39935,7 @@
         <v>4949</v>
       </c>
       <c r="B4949">
-        <v>140.8771967872381</v>
+        <v>140.877196787238</v>
       </c>
     </row>
     <row r="4950" spans="1:2">
@@ -39991,7 +39991,7 @@
         <v>4956</v>
       </c>
       <c r="B4956">
-        <v>291.2472575877558</v>
+        <v>291.2472575877557</v>
       </c>
     </row>
     <row r="4957" spans="1:2">
@@ -40223,7 +40223,7 @@
         <v>4985</v>
       </c>
       <c r="B4985">
-        <v>185.7296677570864</v>
+        <v>185.7296677570863</v>
       </c>
     </row>
     <row r="4986" spans="1:2">
@@ -40439,7 +40439,7 @@
         <v>5012</v>
       </c>
       <c r="B5012">
-        <v>95.80492253839378</v>
+        <v>95.80492253839375</v>
       </c>
     </row>
     <row r="5013" spans="1:2">
@@ -40463,7 +40463,7 @@
         <v>5015</v>
       </c>
       <c r="B5015">
-        <v>86.10309887454861</v>
+        <v>86.10309887454859</v>
       </c>
     </row>
     <row r="5016" spans="1:2">
@@ -40471,7 +40471,7 @@
         <v>5016</v>
       </c>
       <c r="B5016">
-        <v>81.72373834383212</v>
+        <v>81.72373834383211</v>
       </c>
     </row>
     <row r="5017" spans="1:2">
@@ -40503,7 +40503,7 @@
         <v>5020</v>
       </c>
       <c r="B5020">
-        <v>92.35225263192449</v>
+        <v>92.35225263192446</v>
       </c>
     </row>
     <row r="5021" spans="1:2">
@@ -40599,7 +40599,7 @@
         <v>5032</v>
       </c>
       <c r="B5032">
-        <v>89.00743286768254</v>
+        <v>89.00743286768252</v>
       </c>
     </row>
     <row r="5033" spans="1:2">
@@ -40639,7 +40639,7 @@
         <v>5037</v>
       </c>
       <c r="B5037">
-        <v>87.51452899674165</v>
+        <v>87.51452899674163</v>
       </c>
     </row>
     <row r="5038" spans="1:2">
@@ -40863,7 +40863,7 @@
         <v>5065</v>
       </c>
       <c r="B5065">
-        <v>92.35752791062038</v>
+        <v>92.35752791062036</v>
       </c>
     </row>
     <row r="5066" spans="1:2">
@@ -40895,7 +40895,7 @@
         <v>5069</v>
       </c>
       <c r="B5069">
-        <v>80.60567233133909</v>
+        <v>80.60567233133908</v>
       </c>
     </row>
     <row r="5070" spans="1:2">
@@ -40975,7 +40975,7 @@
         <v>5079</v>
       </c>
       <c r="B5079">
-        <v>241.7589889283624</v>
+        <v>241.7589889283623</v>
       </c>
     </row>
     <row r="5080" spans="1:2">
@@ -41039,7 +41039,7 @@
         <v>5087</v>
       </c>
       <c r="B5087">
-        <v>98.93052516571704</v>
+        <v>98.930525165717</v>
       </c>
     </row>
     <row r="5088" spans="1:2">
@@ -41047,7 +41047,7 @@
         <v>5088</v>
       </c>
       <c r="B5088">
-        <v>98.60990544942152</v>
+        <v>98.6099054494215</v>
       </c>
     </row>
     <row r="5089" spans="1:2">
@@ -41103,7 +41103,7 @@
         <v>5095</v>
       </c>
       <c r="B5095">
-        <v>124.489250447373</v>
+        <v>124.4892504473729</v>
       </c>
     </row>
     <row r="5096" spans="1:2">
@@ -41271,7 +41271,7 @@
         <v>5116</v>
       </c>
       <c r="B5116">
-        <v>129.0306792624692</v>
+        <v>129.0306792624691</v>
       </c>
     </row>
     <row r="5117" spans="1:2">
@@ -41311,7 +41311,7 @@
         <v>5121</v>
       </c>
       <c r="B5121">
-        <v>222.6873910874753</v>
+        <v>222.6873910874752</v>
       </c>
     </row>
     <row r="5122" spans="1:2">
@@ -41367,7 +41367,7 @@
         <v>5128</v>
       </c>
       <c r="B5128">
-        <v>266.7391919797008</v>
+        <v>266.7391919797007</v>
       </c>
     </row>
     <row r="5129" spans="1:2">
@@ -41583,7 +41583,7 @@
         <v>5155</v>
       </c>
       <c r="B5155">
-        <v>150.4066946803504</v>
+        <v>150.4066946803503</v>
       </c>
     </row>
     <row r="5156" spans="1:2">
@@ -41639,7 +41639,7 @@
         <v>5162</v>
       </c>
       <c r="B5162">
-        <v>121.1790130656931</v>
+        <v>121.179013065693</v>
       </c>
     </row>
     <row r="5163" spans="1:2">
@@ -41807,7 +41807,7 @@
         <v>5183</v>
       </c>
       <c r="B5183">
-        <v>136.8149391203532</v>
+        <v>136.8149391203531</v>
       </c>
     </row>
     <row r="5184" spans="1:2">
@@ -41895,7 +41895,7 @@
         <v>5194</v>
       </c>
       <c r="B5194">
-        <v>137.6117992744734</v>
+        <v>137.6117992744733</v>
       </c>
     </row>
     <row r="5195" spans="1:2">
@@ -41943,7 +41943,7 @@
         <v>5200</v>
       </c>
       <c r="B5200">
-        <v>109.2999646556328</v>
+        <v>109.2999646556327</v>
       </c>
     </row>
     <row r="5201" spans="1:2">
@@ -42007,7 +42007,7 @@
         <v>5208</v>
       </c>
       <c r="B5208">
-        <v>40.48600556483289</v>
+        <v>40.48600556483288</v>
       </c>
     </row>
     <row r="5209" spans="1:2">
@@ -42063,7 +42063,7 @@
         <v>5215</v>
       </c>
       <c r="B5215">
-        <v>31.31639890719672</v>
+        <v>31.31639890719671</v>
       </c>
     </row>
     <row r="5216" spans="1:2">
@@ -42207,7 +42207,7 @@
         <v>5233</v>
       </c>
       <c r="B5233">
-        <v>31.83103165108604</v>
+        <v>31.83103165108603</v>
       </c>
     </row>
     <row r="5234" spans="1:2">
@@ -42319,7 +42319,7 @@
         <v>5247</v>
       </c>
       <c r="B5247">
-        <v>158.7785619707504</v>
+        <v>158.7785619707503</v>
       </c>
     </row>
     <row r="5248" spans="1:2">
@@ -42511,7 +42511,7 @@
         <v>5271</v>
       </c>
       <c r="B5271">
-        <v>201.3653007407078</v>
+        <v>201.3653007407077</v>
       </c>
     </row>
     <row r="5272" spans="1:2">
@@ -42543,7 +42543,7 @@
         <v>5275</v>
       </c>
       <c r="B5275">
-        <v>79.95798533589752</v>
+        <v>79.9579853358975</v>
       </c>
     </row>
     <row r="5276" spans="1:2">
@@ -42599,7 +42599,7 @@
         <v>5282</v>
       </c>
       <c r="B5282">
-        <v>51.74432951500847</v>
+        <v>51.74432951500846</v>
       </c>
     </row>
     <row r="5283" spans="1:2">
@@ -42687,7 +42687,7 @@
         <v>5293</v>
       </c>
       <c r="B5293">
-        <v>201.8277668397154</v>
+        <v>201.8277668397153</v>
       </c>
     </row>
     <row r="5294" spans="1:2">
@@ -42879,7 +42879,7 @@
         <v>5317</v>
       </c>
       <c r="B5317">
-        <v>217.2931255498746</v>
+        <v>217.2931255498745</v>
       </c>
     </row>
     <row r="5318" spans="1:2">
@@ -43015,7 +43015,7 @@
         <v>5334</v>
       </c>
       <c r="B5334">
-        <v>85.43284540913011</v>
+        <v>85.4328454091301</v>
       </c>
     </row>
     <row r="5335" spans="1:2">
@@ -43039,7 +43039,7 @@
         <v>5337</v>
       </c>
       <c r="B5337">
-        <v>106.8745087396715</v>
+        <v>106.8745087396714</v>
       </c>
     </row>
     <row r="5338" spans="1:2">
@@ -43503,7 +43503,7 @@
         <v>5395</v>
       </c>
       <c r="B5395">
-        <v>152.4652256559077</v>
+        <v>152.4652256559076</v>
       </c>
     </row>
     <row r="5396" spans="1:2">
@@ -43591,7 +43591,7 @@
         <v>5406</v>
       </c>
       <c r="B5406">
-        <v>121.8167356458202</v>
+        <v>121.8167356458201</v>
       </c>
     </row>
     <row r="5407" spans="1:2">
@@ -43599,7 +43599,7 @@
         <v>5407</v>
       </c>
       <c r="B5407">
-        <v>130.8169472431101</v>
+        <v>130.81694724311</v>
       </c>
     </row>
     <row r="5408" spans="1:2">
@@ -43751,7 +43751,7 @@
         <v>5426</v>
       </c>
       <c r="B5426">
-        <v>78.93663276616273</v>
+        <v>78.93663276616272</v>
       </c>
     </row>
     <row r="5427" spans="1:2">
@@ -43791,7 +43791,7 @@
         <v>5431</v>
       </c>
       <c r="B5431">
-        <v>68.88634763734922</v>
+        <v>68.8863476373492</v>
       </c>
     </row>
     <row r="5432" spans="1:2">
@@ -43975,7 +43975,7 @@
         <v>5454</v>
       </c>
       <c r="B5454">
-        <v>67.52854951523121</v>
+        <v>67.52854951523119</v>
       </c>
     </row>
     <row r="5455" spans="1:2">
@@ -43983,7 +43983,7 @@
         <v>5455</v>
       </c>
       <c r="B5455">
-        <v>73.25310611340326</v>
+        <v>73.25310611340325</v>
       </c>
     </row>
     <row r="5456" spans="1:2">
@@ -43991,7 +43991,7 @@
         <v>5456</v>
       </c>
       <c r="B5456">
-        <v>91.18114076143374</v>
+        <v>91.18114076143372</v>
       </c>
     </row>
     <row r="5457" spans="1:2">
@@ -44279,7 +44279,7 @@
         <v>5492</v>
       </c>
       <c r="B5492">
-        <v>145.9016066740482</v>
+        <v>145.9016066740481</v>
       </c>
     </row>
     <row r="5493" spans="1:2">
@@ -44295,7 +44295,7 @@
         <v>5494</v>
       </c>
       <c r="B5494">
-        <v>134.0498138705834</v>
+        <v>134.0498138705833</v>
       </c>
     </row>
     <row r="5495" spans="1:2">
@@ -44359,7 +44359,7 @@
         <v>5502</v>
       </c>
       <c r="B5502">
-        <v>103.7787993582917</v>
+        <v>103.7787993582916</v>
       </c>
     </row>
     <row r="5503" spans="1:2">
@@ -44391,7 +44391,7 @@
         <v>5506</v>
       </c>
       <c r="B5506">
-        <v>97.15480774246794</v>
+        <v>97.15480774246792</v>
       </c>
     </row>
     <row r="5507" spans="1:2">
@@ -44495,7 +44495,7 @@
         <v>5519</v>
       </c>
       <c r="B5519">
-        <v>84.36108462074557</v>
+        <v>84.36108462074556</v>
       </c>
     </row>
     <row r="5520" spans="1:2">
@@ -44687,7 +44687,7 @@
         <v>5543</v>
       </c>
       <c r="B5543">
-        <v>94.68627038382344</v>
+        <v>94.6862703838234</v>
       </c>
     </row>
     <row r="5544" spans="1:2">
@@ -44703,7 +44703,7 @@
         <v>5545</v>
       </c>
       <c r="B5545">
-        <v>93.67751986875108</v>
+        <v>93.67751986875106</v>
       </c>
     </row>
     <row r="5546" spans="1:2">
@@ -44711,7 +44711,7 @@
         <v>5546</v>
       </c>
       <c r="B5546">
-        <v>98.52257027990044</v>
+        <v>98.52257027990042</v>
       </c>
     </row>
     <row r="5547" spans="1:2">
@@ -44719,7 +44719,7 @@
         <v>5547</v>
       </c>
       <c r="B5547">
-        <v>97.78139362312589</v>
+        <v>97.78139362312588</v>
       </c>
     </row>
     <row r="5548" spans="1:2">
@@ -44783,7 +44783,7 @@
         <v>5555</v>
       </c>
       <c r="B5555">
-        <v>179.0209786110895</v>
+        <v>179.0209786110894</v>
       </c>
     </row>
     <row r="5556" spans="1:2">
@@ -45071,7 +45071,7 @@
         <v>5591</v>
       </c>
       <c r="B5591">
-        <v>115.4828843582712</v>
+        <v>115.4828843582711</v>
       </c>
     </row>
     <row r="5592" spans="1:2">
@@ -45111,7 +45111,7 @@
         <v>5596</v>
       </c>
       <c r="B5596">
-        <v>85.78716829487168</v>
+        <v>85.78716829487166</v>
       </c>
     </row>
     <row r="5597" spans="1:2">
@@ -45119,7 +45119,7 @@
         <v>5597</v>
       </c>
       <c r="B5597">
-        <v>84.55714914561001</v>
+        <v>84.55714914561</v>
       </c>
     </row>
     <row r="5598" spans="1:2">
@@ -45143,7 +45143,7 @@
         <v>5600</v>
       </c>
       <c r="B5600">
-        <v>115.750458216569</v>
+        <v>115.7504582165689</v>
       </c>
     </row>
     <row r="5601" spans="1:2">
@@ -45255,7 +45255,7 @@
         <v>5614</v>
       </c>
       <c r="B5614">
-        <v>75.77263783277485</v>
+        <v>75.77263783277483</v>
       </c>
     </row>
     <row r="5615" spans="1:2">
@@ -45319,7 +45319,7 @@
         <v>5622</v>
       </c>
       <c r="B5622">
-        <v>32.74131029716818</v>
+        <v>32.74131029716817</v>
       </c>
     </row>
     <row r="5623" spans="1:2">
@@ -45607,7 +45607,7 @@
         <v>5658</v>
       </c>
       <c r="B5658">
-        <v>96.37787641897673</v>
+        <v>96.3778764189767</v>
       </c>
     </row>
     <row r="5659" spans="1:2">
@@ -45679,7 +45679,7 @@
         <v>5667</v>
       </c>
       <c r="B5667">
-        <v>44.50635407318922</v>
+        <v>44.50635407318921</v>
       </c>
     </row>
     <row r="5668" spans="1:2">
@@ -45727,7 +45727,7 @@
         <v>5673</v>
       </c>
       <c r="B5673">
-        <v>61.77468581319301</v>
+        <v>61.774685813193</v>
       </c>
     </row>
     <row r="5674" spans="1:2">
@@ -45735,7 +45735,7 @@
         <v>5674</v>
       </c>
       <c r="B5674">
-        <v>73.71410685721756</v>
+        <v>73.71410685721754</v>
       </c>
     </row>
     <row r="5675" spans="1:2">
@@ -45815,7 +45815,7 @@
         <v>5684</v>
       </c>
       <c r="B5684">
-        <v>100.7757004251289</v>
+        <v>100.7757004251288</v>
       </c>
     </row>
     <row r="5685" spans="1:2">
@@ -45855,7 +45855,7 @@
         <v>5689</v>
       </c>
       <c r="B5689">
-        <v>81.27328815740964</v>
+        <v>81.27328815740962</v>
       </c>
     </row>
     <row r="5690" spans="1:2">
@@ -45983,7 +45983,7 @@
         <v>5705</v>
       </c>
       <c r="B5705">
-        <v>147.1685527741812</v>
+        <v>147.1685527741811</v>
       </c>
     </row>
     <row r="5706" spans="1:2">
@@ -46231,7 +46231,7 @@
         <v>5736</v>
       </c>
       <c r="B5736">
-        <v>113.5700096889286</v>
+        <v>113.5700096889285</v>
       </c>
     </row>
     <row r="5737" spans="1:2">
@@ -46271,7 +46271,7 @@
         <v>5741</v>
       </c>
       <c r="B5741">
-        <v>89.31867431074089</v>
+        <v>89.31867431074087</v>
       </c>
     </row>
     <row r="5742" spans="1:2">
@@ -46495,7 +46495,7 @@
         <v>5769</v>
       </c>
       <c r="B5769">
-        <v>149.0178310281343</v>
+        <v>149.0178310281342</v>
       </c>
     </row>
     <row r="5770" spans="1:2">
@@ -46519,7 +46519,7 @@
         <v>5772</v>
       </c>
       <c r="B5772">
-        <v>214.8603428579468</v>
+        <v>214.8603428579467</v>
       </c>
     </row>
     <row r="5773" spans="1:2">
@@ -46543,7 +46543,7 @@
         <v>5775</v>
       </c>
       <c r="B5775">
-        <v>221.4764215557266</v>
+        <v>221.4764215557265</v>
       </c>
     </row>
     <row r="5776" spans="1:2">
@@ -46575,7 +46575,7 @@
         <v>5779</v>
       </c>
       <c r="B5779">
-        <v>96.96870763291798</v>
+        <v>96.96870763291795</v>
       </c>
     </row>
     <row r="5780" spans="1:2">
@@ -46615,7 +46615,7 @@
         <v>5784</v>
       </c>
       <c r="B5784">
-        <v>54.78611382527457</v>
+        <v>54.78611382527456</v>
       </c>
     </row>
     <row r="5785" spans="1:2">
@@ -46655,7 +46655,7 @@
         <v>5789</v>
       </c>
       <c r="B5789">
-        <v>31.39816572698323</v>
+        <v>31.39816572698322</v>
       </c>
     </row>
     <row r="5790" spans="1:2">
@@ -46799,7 +46799,7 @@
         <v>5807</v>
       </c>
       <c r="B5807">
-        <v>61.94027095003667</v>
+        <v>61.94027095003666</v>
       </c>
     </row>
     <row r="5808" spans="1:2">
@@ -46839,7 +46839,7 @@
         <v>5812</v>
       </c>
       <c r="B5812">
-        <v>59.33633477153062</v>
+        <v>59.33633477153061</v>
       </c>
     </row>
     <row r="5813" spans="1:2">
@@ -47039,7 +47039,7 @@
         <v>5837</v>
       </c>
       <c r="B5837">
-        <v>97.25943410327004</v>
+        <v>97.25943410327002</v>
       </c>
     </row>
     <row r="5838" spans="1:2">
@@ -47087,7 +47087,7 @@
         <v>5843</v>
       </c>
       <c r="B5843">
-        <v>120.376877632877</v>
+        <v>120.3768776328769</v>
       </c>
     </row>
     <row r="5844" spans="1:2">
@@ -47143,7 +47143,7 @@
         <v>5850</v>
       </c>
       <c r="B5850">
-        <v>160.6981772739822</v>
+        <v>160.6981772739821</v>
       </c>
     </row>
     <row r="5851" spans="1:2">
@@ -47151,7 +47151,7 @@
         <v>5851</v>
       </c>
       <c r="B5851">
-        <v>144.2184996990161</v>
+        <v>144.218499699016</v>
       </c>
     </row>
     <row r="5852" spans="1:2">
@@ -47303,7 +47303,7 @@
         <v>5870</v>
       </c>
       <c r="B5870">
-        <v>143.1880619270828</v>
+        <v>143.1880619270827</v>
       </c>
     </row>
     <row r="5871" spans="1:2">
@@ -47663,7 +47663,7 @@
         <v>5915</v>
       </c>
       <c r="B5915">
-        <v>68.33068494804731</v>
+        <v>68.33068494804729</v>
       </c>
     </row>
     <row r="5916" spans="1:2">
@@ -47863,7 +47863,7 @@
         <v>5940</v>
       </c>
       <c r="B5940">
-        <v>88.20998657148502</v>
+        <v>88.209986571485</v>
       </c>
     </row>
     <row r="5941" spans="1:2">
@@ -47927,7 +47927,7 @@
         <v>5948</v>
       </c>
       <c r="B5948">
-        <v>54.82450613133921</v>
+        <v>54.8245061313392</v>
       </c>
     </row>
     <row r="5949" spans="1:2">
@@ -47983,7 +47983,7 @@
         <v>5955</v>
       </c>
       <c r="B5955">
-        <v>28.83552325782456</v>
+        <v>28.83552325782455</v>
       </c>
     </row>
     <row r="5956" spans="1:2">
@@ -48047,7 +48047,7 @@
         <v>5963</v>
       </c>
       <c r="B5963">
-        <v>71.4006040780249</v>
+        <v>71.40060407802488</v>
       </c>
     </row>
     <row r="5964" spans="1:2">
@@ -48063,7 +48063,7 @@
         <v>5965</v>
       </c>
       <c r="B5965">
-        <v>90.69903890283582</v>
+        <v>90.6990389028358</v>
       </c>
     </row>
     <row r="5966" spans="1:2">
@@ -48111,7 +48111,7 @@
         <v>5971</v>
       </c>
       <c r="B5971">
-        <v>81.16866179660754</v>
+        <v>81.16866179660752</v>
       </c>
     </row>
     <row r="5972" spans="1:2">
@@ -48143,7 +48143,7 @@
         <v>5975</v>
       </c>
       <c r="B5975">
-        <v>72.58021500863681</v>
+        <v>72.5802150086368</v>
       </c>
     </row>
     <row r="5976" spans="1:2">
@@ -48183,7 +48183,7 @@
         <v>5980</v>
       </c>
       <c r="B5980">
-        <v>47.26561790218579</v>
+        <v>47.26561790218578</v>
       </c>
     </row>
     <row r="5981" spans="1:2">
@@ -48399,7 +48399,7 @@
         <v>6007</v>
       </c>
       <c r="B6007">
-        <v>79.4691428434104</v>
+        <v>79.46914284341038</v>
       </c>
     </row>
     <row r="6008" spans="1:2">
@@ -48679,7 +48679,7 @@
         <v>6042</v>
       </c>
       <c r="B6042">
-        <v>90.84469520905051</v>
+        <v>90.8446952090505</v>
       </c>
     </row>
     <row r="6043" spans="1:2">
@@ -48743,7 +48743,7 @@
         <v>6050</v>
       </c>
       <c r="B6050">
-        <v>81.53031145831564</v>
+        <v>81.53031145831562</v>
       </c>
     </row>
     <row r="6051" spans="1:2">
@@ -48751,7 +48751,7 @@
         <v>6051</v>
       </c>
       <c r="B6051">
-        <v>80.89053738091792</v>
+        <v>80.89053738091791</v>
       </c>
     </row>
     <row r="6052" spans="1:2">
@@ -48855,7 +48855,7 @@
         <v>6064</v>
       </c>
       <c r="B6064">
-        <v>146.1003088382606</v>
+        <v>146.1003088382605</v>
       </c>
     </row>
     <row r="6065" spans="1:2">
@@ -48887,7 +48887,7 @@
         <v>6068</v>
       </c>
       <c r="B6068">
-        <v>107.0201650458862</v>
+        <v>107.0201650458861</v>
       </c>
     </row>
     <row r="6069" spans="1:2">
@@ -48935,7 +48935,7 @@
         <v>6074</v>
       </c>
       <c r="B6074">
-        <v>71.33173238393948</v>
+        <v>71.33173238393947</v>
       </c>
     </row>
     <row r="6075" spans="1:2">
@@ -49071,7 +49071,7 @@
         <v>6091</v>
       </c>
       <c r="B6091">
-        <v>90.96925040048158</v>
+        <v>90.96925040048156</v>
       </c>
     </row>
     <row r="6092" spans="1:2">
@@ -49095,7 +49095,7 @@
         <v>6094</v>
       </c>
       <c r="B6094">
-        <v>73.47965002628848</v>
+        <v>73.47965002628847</v>
       </c>
     </row>
     <row r="6095" spans="1:2">
@@ -49183,7 +49183,7 @@
         <v>6105</v>
       </c>
       <c r="B6105">
-        <v>91.57326981116262</v>
+        <v>91.5732698111626</v>
       </c>
     </row>
     <row r="6106" spans="1:2">
@@ -49287,7 +49287,7 @@
         <v>6118</v>
       </c>
       <c r="B6118">
-        <v>82.20320256308209</v>
+        <v>82.20320256308207</v>
       </c>
     </row>
     <row r="6119" spans="1:2">
@@ -49375,7 +49375,7 @@
         <v>6129</v>
       </c>
       <c r="B6129">
-        <v>81.90456317468617</v>
+        <v>81.90456317468616</v>
       </c>
     </row>
     <row r="6130" spans="1:2">
@@ -49583,7 +49583,7 @@
         <v>6155</v>
       </c>
       <c r="B6155">
-        <v>115.3735688608505</v>
+        <v>115.3735688608504</v>
       </c>
     </row>
     <row r="6156" spans="1:2">
@@ -49639,7 +49639,7 @@
         <v>6162</v>
       </c>
       <c r="B6162">
-        <v>97.59529351357594</v>
+        <v>97.59529351357592</v>
       </c>
     </row>
     <row r="6163" spans="1:2">
@@ -49991,7 +49991,7 @@
         <v>6206</v>
       </c>
       <c r="B6206">
-        <v>86.3275912901632</v>
+        <v>86.32759129016318</v>
       </c>
     </row>
     <row r="6207" spans="1:2">
@@ -50031,7 +50031,7 @@
         <v>6211</v>
       </c>
       <c r="B6211">
-        <v>79.25051184856903</v>
+        <v>79.25051184856902</v>
       </c>
     </row>
     <row r="6212" spans="1:2">
@@ -50119,7 +50119,7 @@
         <v>6222</v>
       </c>
       <c r="B6222">
-        <v>44.89086327591291</v>
+        <v>44.8908632759129</v>
       </c>
     </row>
     <row r="6223" spans="1:2">
@@ -50255,7 +50255,7 @@
         <v>6239</v>
       </c>
       <c r="B6239">
-        <v>93.58022028391552</v>
+        <v>93.58022028391549</v>
       </c>
     </row>
     <row r="6240" spans="1:2">
@@ -50271,7 +50271,7 @@
         <v>6241</v>
       </c>
       <c r="B6241">
-        <v>95.78235606841686</v>
+        <v>95.78235606841685</v>
       </c>
     </row>
     <row r="6242" spans="1:2">
@@ -50343,7 +50343,7 @@
         <v>6250</v>
       </c>
       <c r="B6250">
-        <v>121.9902337007077</v>
+        <v>121.9902337007076</v>
       </c>
     </row>
     <row r="6251" spans="1:2">
@@ -50423,7 +50423,7 @@
         <v>6260</v>
       </c>
       <c r="B6260">
-        <v>61.89660336527613</v>
+        <v>61.89660336527612</v>
       </c>
     </row>
     <row r="6261" spans="1:2">
@@ -50463,7 +50463,7 @@
         <v>6265</v>
       </c>
       <c r="B6265">
-        <v>33.13607698624501</v>
+        <v>33.136076986245</v>
       </c>
     </row>
     <row r="6266" spans="1:2">
@@ -50679,7 +50679,7 @@
         <v>6292</v>
       </c>
       <c r="B6292">
-        <v>84.03196584432888</v>
+        <v>84.03196584432887</v>
       </c>
     </row>
     <row r="6293" spans="1:2">
@@ -50839,7 +50839,7 @@
         <v>6312</v>
       </c>
       <c r="B6312">
-        <v>51.34663211554502</v>
+        <v>51.34663211554501</v>
       </c>
     </row>
     <row r="6313" spans="1:2">
@@ -50847,7 +50847,7 @@
         <v>6313</v>
       </c>
       <c r="B6313">
-        <v>46.60298428377249</v>
+        <v>46.60298428377248</v>
       </c>
     </row>
     <row r="6314" spans="1:2">
@@ -50863,7 +50863,7 @@
         <v>6315</v>
       </c>
       <c r="B6315">
-        <v>37.25577657670754</v>
+        <v>37.25577657670753</v>
       </c>
     </row>
     <row r="6316" spans="1:2">
@@ -50943,7 +50943,7 @@
         <v>6325</v>
       </c>
       <c r="B6325">
-        <v>70.14948381397961</v>
+        <v>70.1494838139796</v>
       </c>
     </row>
     <row r="6326" spans="1:2">
@@ -50975,7 +50975,7 @@
         <v>6329</v>
       </c>
       <c r="B6329">
-        <v>72.7205960361556</v>
+        <v>72.72059603615558</v>
       </c>
     </row>
     <row r="6330" spans="1:2">
@@ -51007,7 +51007,7 @@
         <v>6333</v>
       </c>
       <c r="B6333">
-        <v>30.18397241380928</v>
+        <v>30.18397241380927</v>
       </c>
     </row>
     <row r="6334" spans="1:2">
@@ -51327,7 +51327,7 @@
         <v>6373</v>
       </c>
       <c r="B6373">
-        <v>49.03869768608693</v>
+        <v>49.03869768608692</v>
       </c>
     </row>
     <row r="6374" spans="1:2">
@@ -51367,7 +51367,7 @@
         <v>6378</v>
       </c>
       <c r="B6378">
-        <v>38.37911786789648</v>
+        <v>38.37911786789647</v>
       </c>
     </row>
     <row r="6379" spans="1:2">
@@ -51423,7 +51423,7 @@
         <v>6385</v>
       </c>
       <c r="B6385">
-        <v>21.72802304241735</v>
+        <v>21.72802304241734</v>
       </c>
     </row>
     <row r="6386" spans="1:2">
@@ -51495,7 +51495,7 @@
         <v>6394</v>
       </c>
       <c r="B6394">
-        <v>33.43178566425431</v>
+        <v>33.4317856642543</v>
       </c>
     </row>
     <row r="6395" spans="1:2">
@@ -51655,7 +51655,7 @@
         <v>6414</v>
       </c>
       <c r="B6414">
-        <v>19.25447416901173</v>
+        <v>19.25447416901172</v>
       </c>
     </row>
     <row r="6415" spans="1:2">
@@ -51719,7 +51719,7 @@
         <v>6422</v>
       </c>
       <c r="B6422">
-        <v>58.72733315319234</v>
+        <v>58.72733315319233</v>
       </c>
     </row>
     <row r="6423" spans="1:2">
@@ -51751,7 +51751,7 @@
         <v>6426</v>
       </c>
       <c r="B6426">
-        <v>54.70962228418396</v>
+        <v>54.70962228418395</v>
       </c>
     </row>
     <row r="6427" spans="1:2">
@@ -52039,7 +52039,7 @@
         <v>6462</v>
       </c>
       <c r="B6462">
-        <v>22.60014383926578</v>
+        <v>22.60014383926577</v>
       </c>
     </row>
     <row r="6463" spans="1:2">
@@ -52095,7 +52095,7 @@
         <v>6469</v>
       </c>
       <c r="B6469">
-        <v>88.81605747943668</v>
+        <v>88.81605747943667</v>
       </c>
     </row>
     <row r="6470" spans="1:2">
@@ -52303,7 +52303,7 @@
         <v>6495</v>
       </c>
       <c r="B6495">
-        <v>85.99642101647588</v>
+        <v>85.99642101647586</v>
       </c>
     </row>
     <row r="6496" spans="1:2">
@@ -52407,7 +52407,7 @@
         <v>6508</v>
       </c>
       <c r="B6508">
-        <v>48.30484780527892</v>
+        <v>48.30484780527891</v>
       </c>
     </row>
     <row r="6509" spans="1:2">
@@ -52431,7 +52431,7 @@
         <v>6511</v>
       </c>
       <c r="B6511">
-        <v>51.15848050872444</v>
+        <v>51.15848050872443</v>
       </c>
     </row>
     <row r="6512" spans="1:2">
@@ -52471,7 +52471,7 @@
         <v>6516</v>
       </c>
       <c r="B6516">
-        <v>55.9299700891698</v>
+        <v>55.92997008916979</v>
       </c>
     </row>
     <row r="6517" spans="1:2">
@@ -52527,7 +52527,7 @@
         <v>6523</v>
       </c>
       <c r="B6523">
-        <v>49.68843617879913</v>
+        <v>49.68843617879912</v>
       </c>
     </row>
     <row r="6524" spans="1:2">
@@ -52535,7 +52535,7 @@
         <v>6524</v>
       </c>
       <c r="B6524">
-        <v>44.64878659797864</v>
+        <v>44.64878659797863</v>
       </c>
     </row>
     <row r="6525" spans="1:2">
@@ -52599,7 +52599,7 @@
         <v>6532</v>
       </c>
       <c r="B6532">
-        <v>34.06599139191746</v>
+        <v>34.06599139191745</v>
       </c>
     </row>
     <row r="6533" spans="1:2">
@@ -52607,7 +52607,7 @@
         <v>6533</v>
       </c>
       <c r="B6533">
-        <v>31.93800258019743</v>
+        <v>31.93800258019742</v>
       </c>
     </row>
     <row r="6534" spans="1:2">
@@ -52703,7 +52703,7 @@
         <v>6545</v>
       </c>
       <c r="B6545">
-        <v>51.79766844404483</v>
+        <v>51.79766844404482</v>
       </c>
     </row>
     <row r="6546" spans="1:2">
@@ -52711,7 +52711,7 @@
         <v>6546</v>
       </c>
       <c r="B6546">
-        <v>47.62990520324184</v>
+        <v>47.62990520324183</v>
       </c>
     </row>
     <row r="6547" spans="1:2">
@@ -52719,7 +52719,7 @@
         <v>6547</v>
       </c>
       <c r="B6547">
-        <v>43.24028718617221</v>
+        <v>43.2402871861722</v>
       </c>
     </row>
     <row r="6548" spans="1:2">
@@ -52911,7 +52911,7 @@
         <v>6571</v>
       </c>
       <c r="B6571">
-        <v>30.30383846862177</v>
+        <v>30.30383846862176</v>
       </c>
     </row>
     <row r="6572" spans="1:2">
@@ -53031,7 +53031,7 @@
         <v>6586</v>
       </c>
       <c r="B6586">
-        <v>70.9343280555147</v>
+        <v>70.93432805551468</v>
       </c>
     </row>
     <row r="6587" spans="1:2">
@@ -53039,7 +53039,7 @@
         <v>6587</v>
       </c>
       <c r="B6587">
-        <v>79.49698459208322</v>
+        <v>79.49698459208321</v>
       </c>
     </row>
     <row r="6588" spans="1:2">
@@ -53143,7 +53143,7 @@
         <v>6600</v>
       </c>
       <c r="B6600">
-        <v>46.20323538703841</v>
+        <v>46.2032353870384</v>
       </c>
     </row>
     <row r="6601" spans="1:2">
@@ -53151,7 +53151,7 @@
         <v>6601</v>
       </c>
       <c r="B6601">
-        <v>51.38736898991895</v>
+        <v>51.38736898991894</v>
       </c>
     </row>
     <row r="6602" spans="1:2">
@@ -53175,7 +53175,7 @@
         <v>6604</v>
       </c>
       <c r="B6604">
-        <v>36.70275152675358</v>
+        <v>36.70275152675357</v>
       </c>
     </row>
     <row r="6605" spans="1:2">
@@ -53247,7 +53247,7 @@
         <v>6613</v>
       </c>
       <c r="B6613">
-        <v>150.3035336747416</v>
+        <v>150.3035336747415</v>
       </c>
     </row>
     <row r="6614" spans="1:2">
@@ -53287,7 +53287,7 @@
         <v>6618</v>
       </c>
       <c r="B6618">
-        <v>86.01429834983422</v>
+        <v>86.01429834983421</v>
       </c>
     </row>
     <row r="6619" spans="1:2">
@@ -53335,7 +53335,7 @@
         <v>6624</v>
       </c>
       <c r="B6624">
-        <v>63.45105215433591</v>
+        <v>63.4510521543359</v>
       </c>
     </row>
     <row r="6625" spans="1:2">
@@ -53375,7 +53375,7 @@
         <v>6629</v>
       </c>
       <c r="B6629">
-        <v>44.78652998614947</v>
+        <v>44.78652998614946</v>
       </c>
     </row>
     <row r="6630" spans="1:2">
@@ -53399,7 +53399,7 @@
         <v>6632</v>
       </c>
       <c r="B6632">
-        <v>68.92679144068448</v>
+        <v>68.92679144068447</v>
       </c>
     </row>
     <row r="6633" spans="1:2">
@@ -53591,7 +53591,7 @@
         <v>6656</v>
       </c>
       <c r="B6656">
-        <v>57.50727841924516</v>
+        <v>57.50727841924515</v>
       </c>
     </row>
     <row r="6657" spans="1:2">
@@ -53607,7 +53607,7 @@
         <v>6658</v>
       </c>
       <c r="B6658">
-        <v>104.2450753808019</v>
+        <v>104.2450753808018</v>
       </c>
     </row>
     <row r="6659" spans="1:2">
@@ -53647,7 +53647,7 @@
         <v>6663</v>
       </c>
       <c r="B6663">
-        <v>166.9168516433373</v>
+        <v>166.9168516433372</v>
       </c>
     </row>
     <row r="6664" spans="1:2">
@@ -53695,7 +53695,7 @@
         <v>6669</v>
       </c>
       <c r="B6669">
-        <v>75.14341431276894</v>
+        <v>75.14341431276893</v>
       </c>
     </row>
     <row r="6670" spans="1:2">
@@ -53735,7 +53735,7 @@
         <v>6674</v>
       </c>
       <c r="B6674">
-        <v>70.91703686423368</v>
+        <v>70.91703686423367</v>
       </c>
     </row>
     <row r="6675" spans="1:2">
@@ -53743,7 +53743,7 @@
         <v>6675</v>
       </c>
       <c r="B6675">
-        <v>73.08693483448228</v>
+        <v>73.08693483448226</v>
       </c>
     </row>
     <row r="6676" spans="1:2">
@@ -53759,7 +53759,7 @@
         <v>6677</v>
       </c>
       <c r="B6677">
-        <v>76.07274257636406</v>
+        <v>76.07274257636405</v>
       </c>
     </row>
     <row r="6678" spans="1:2">
@@ -53823,7 +53823,7 @@
         <v>6685</v>
       </c>
       <c r="B6685">
-        <v>37.45447874091993</v>
+        <v>37.45447874091992</v>
       </c>
     </row>
     <row r="6686" spans="1:2">
@@ -53911,7 +53911,7 @@
         <v>6696</v>
       </c>
       <c r="B6696">
-        <v>13.52408545717031</v>
+        <v>13.5240854571703</v>
       </c>
     </row>
     <row r="6697" spans="1:2">
@@ -53975,7 +53975,7 @@
         <v>6704</v>
       </c>
       <c r="B6704">
-        <v>7.244423004669795</v>
+        <v>7.244423004669794</v>
       </c>
     </row>
     <row r="6705" spans="1:2">
@@ -54007,7 +54007,7 @@
         <v>6708</v>
       </c>
       <c r="B6708">
-        <v>16.72732260263495</v>
+        <v>16.72732260263494</v>
       </c>
     </row>
     <row r="6709" spans="1:2">
@@ -54039,7 +54039,7 @@
         <v>6712</v>
       </c>
       <c r="B6712">
-        <v>20.26510033873151</v>
+        <v>20.2651003387315</v>
       </c>
     </row>
     <row r="6713" spans="1:2">
@@ -54375,7 +54375,7 @@
         <v>6754</v>
       </c>
       <c r="B6754">
-        <v>31.29734928968373</v>
+        <v>31.29734928968372</v>
       </c>
     </row>
     <row r="6755" spans="1:2">
@@ -54759,7 +54759,7 @@
         <v>6802</v>
       </c>
       <c r="B6802">
-        <v>87.64435946686862</v>
+        <v>87.64435946686861</v>
       </c>
     </row>
     <row r="6803" spans="1:2">
@@ -54879,7 +54879,7 @@
         <v>6817</v>
       </c>
       <c r="B6817">
-        <v>25.81908959240267</v>
+        <v>25.81908959240266</v>
       </c>
     </row>
     <row r="6818" spans="1:2">
@@ -55015,7 +55015,7 @@
         <v>6834</v>
       </c>
       <c r="B6834">
-        <v>86.02426276514871</v>
+        <v>86.02426276514869</v>
       </c>
     </row>
     <row r="6835" spans="1:2">
@@ -55039,7 +55039,7 @@
         <v>6837</v>
       </c>
       <c r="B6837">
-        <v>73.10539830991794</v>
+        <v>73.10539830991793</v>
       </c>
     </row>
     <row r="6838" spans="1:2">
@@ -55047,7 +55047,7 @@
         <v>6838</v>
       </c>
       <c r="B6838">
-        <v>71.17669780448763</v>
+        <v>71.17669780448762</v>
       </c>
     </row>
     <row r="6839" spans="1:2">
@@ -55111,7 +55111,7 @@
         <v>6846</v>
       </c>
       <c r="B6846">
-        <v>25.30943905617059</v>
+        <v>25.30943905617058</v>
       </c>
     </row>
     <row r="6847" spans="1:2">
@@ -55175,7 +55175,7 @@
         <v>6854</v>
       </c>
       <c r="B6854">
-        <v>95.10418968495451</v>
+        <v>95.10418968495448</v>
       </c>
     </row>
     <row r="6855" spans="1:2">
@@ -55207,7 +55207,7 @@
         <v>6858</v>
       </c>
       <c r="B6858">
-        <v>69.67851865485083</v>
+        <v>69.67851865485082</v>
       </c>
     </row>
     <row r="6859" spans="1:2">
@@ -55231,7 +55231,7 @@
         <v>6861</v>
       </c>
       <c r="B6861">
-        <v>56.08060860304173</v>
+        <v>56.08060860304172</v>
       </c>
     </row>
     <row r="6862" spans="1:2">
@@ -55527,7 +55527,7 @@
         <v>6898</v>
       </c>
       <c r="B6898">
-        <v>51.14792995133263</v>
+        <v>51.14792995133262</v>
       </c>
     </row>
     <row r="6899" spans="1:2">
@@ -55535,7 +55535,7 @@
         <v>6899</v>
       </c>
       <c r="B6899">
-        <v>56.91849870257452</v>
+        <v>56.91849870257451</v>
       </c>
     </row>
     <row r="6900" spans="1:2">
@@ -55543,7 +55543,7 @@
         <v>6900</v>
       </c>
       <c r="B6900">
-        <v>60.58452432518929</v>
+        <v>60.58452432518928</v>
       </c>
     </row>
     <row r="6901" spans="1:2">
@@ -55687,7 +55687,7 @@
         <v>6918</v>
       </c>
       <c r="B6918">
-        <v>19.2745788422639</v>
+        <v>19.27457884226389</v>
       </c>
     </row>
     <row r="6919" spans="1:2">
@@ -55695,7 +55695,7 @@
         <v>6919</v>
       </c>
       <c r="B6919">
-        <v>32.79230465789525</v>
+        <v>32.79230465789524</v>
       </c>
     </row>
     <row r="6920" spans="1:2">
@@ -55711,7 +55711,7 @@
         <v>6921</v>
       </c>
       <c r="B6921">
-        <v>53.00541419436824</v>
+        <v>53.00541419436823</v>
       </c>
     </row>
     <row r="6922" spans="1:2">
@@ -55727,7 +55727,7 @@
         <v>6923</v>
       </c>
       <c r="B6923">
-        <v>58.1643436879239</v>
+        <v>58.16434368792389</v>
       </c>
     </row>
     <row r="6924" spans="1:2">
@@ -55735,7 +55735,7 @@
         <v>6924</v>
       </c>
       <c r="B6924">
-        <v>63.64946124750964</v>
+        <v>63.64946124750963</v>
       </c>
     </row>
     <row r="6925" spans="1:2">
@@ -55855,7 +55855,7 @@
         <v>6939</v>
       </c>
       <c r="B6939">
-        <v>8.872491238641301</v>
+        <v>8.872491238641299</v>
       </c>
     </row>
     <row r="6940" spans="1:2">
@@ -55975,7 +55975,7 @@
         <v>6954</v>
       </c>
       <c r="B6954">
-        <v>33.25858068040545</v>
+        <v>33.25858068040544</v>
       </c>
     </row>
     <row r="6955" spans="1:2">
@@ -56247,7 +56247,7 @@
         <v>6988</v>
       </c>
       <c r="B6988">
-        <v>2.182684659665396</v>
+        <v>2.182684659665395</v>
       </c>
     </row>
     <row r="6989" spans="1:2">
@@ -56255,7 +56255,7 @@
         <v>6989</v>
       </c>
       <c r="B6989">
-        <v>2.506325938369506</v>
+        <v>2.506325938369505</v>
       </c>
     </row>
     <row r="6990" spans="1:2">
@@ -56303,7 +56303,7 @@
         <v>6995</v>
       </c>
       <c r="B6995">
-        <v>45.00047184437225</v>
+        <v>45.00047184437224</v>
       </c>
     </row>
     <row r="6996" spans="1:2">
@@ -56343,7 +56343,7 @@
         <v>7000</v>
       </c>
       <c r="B7000">
-        <v>68.70024752779926</v>
+        <v>68.70024752779925</v>
       </c>
     </row>
     <row r="7001" spans="1:2">
@@ -56431,7 +56431,7 @@
         <v>7011</v>
       </c>
       <c r="B7011">
-        <v>13.58876623540287</v>
+        <v>13.58876623540286</v>
       </c>
     </row>
     <row r="7012" spans="1:2">
@@ -56463,7 +56463,7 @@
         <v>7015</v>
       </c>
       <c r="B7015">
-        <v>8.271256002827551</v>
+        <v>8.271256002827549</v>
       </c>
     </row>
     <row r="7016" spans="1:2">
@@ -56519,7 +56519,7 @@
         <v>7022</v>
       </c>
       <c r="B7022">
-        <v>53.35416873037524</v>
+        <v>53.35416873037523</v>
       </c>
     </row>
     <row r="7023" spans="1:2">
@@ -56615,7 +56615,7 @@
         <v>7034</v>
       </c>
       <c r="B7034">
-        <v>15.42635095491337</v>
+        <v>15.42635095491336</v>
       </c>
     </row>
     <row r="7035" spans="1:2">
@@ -56687,7 +56687,7 @@
         <v>7043</v>
       </c>
       <c r="B7043">
-        <v>46.75362279764442</v>
+        <v>46.75362279764441</v>
       </c>
     </row>
     <row r="7044" spans="1:2">
@@ -56711,7 +56711,7 @@
         <v>7046</v>
       </c>
       <c r="B7046">
-        <v>60.93357193223495</v>
+        <v>60.93357193223494</v>
       </c>
     </row>
     <row r="7047" spans="1:2">
@@ -56799,7 +56799,7 @@
         <v>7057</v>
       </c>
       <c r="B7057">
-        <v>29.69366456612885</v>
+        <v>29.69366456612884</v>
       </c>
     </row>
     <row r="7058" spans="1:2">
@@ -56943,7 +56943,7 @@
         <v>7075</v>
       </c>
       <c r="B7075">
-        <v>56.44196519371117</v>
+        <v>56.44196519371116</v>
       </c>
     </row>
     <row r="7076" spans="1:2">
@@ -57247,7 +57247,7 @@
         <v>7113</v>
       </c>
       <c r="B7113">
-        <v>91.48124550502295</v>
+        <v>91.48124550502294</v>
       </c>
     </row>
     <row r="7114" spans="1:2">
@@ -57375,7 +57375,7 @@
         <v>7129</v>
       </c>
       <c r="B7129">
-        <v>83.61463268527513</v>
+        <v>83.61463268527511</v>
       </c>
     </row>
     <row r="7130" spans="1:2">
@@ -57383,7 +57383,7 @@
         <v>7130</v>
       </c>
       <c r="B7130">
-        <v>79.20684426380849</v>
+        <v>79.20684426380848</v>
       </c>
     </row>
     <row r="7131" spans="1:2">
@@ -57391,7 +57391,7 @@
         <v>7131</v>
       </c>
       <c r="B7131">
-        <v>87.32373975057311</v>
+        <v>87.3237397505731</v>
       </c>
     </row>
     <row r="7132" spans="1:2">
@@ -57543,7 +57543,7 @@
         <v>7150</v>
       </c>
       <c r="B7150">
-        <v>43.729422749698</v>
+        <v>43.72942274969799</v>
       </c>
     </row>
     <row r="7151" spans="1:2">
@@ -57551,7 +57551,7 @@
         <v>7151</v>
       </c>
       <c r="B7151">
-        <v>28.98358274655628</v>
+        <v>28.98358274655627</v>
       </c>
     </row>
     <row r="7152" spans="1:2">
@@ -58215,7 +58215,7 @@
         <v>7234</v>
       </c>
       <c r="B7234">
-        <v>23.58785185376225</v>
+        <v>23.58785185376224</v>
       </c>
     </row>
     <row r="7235" spans="1:2">
@@ -58343,7 +58343,7 @@
         <v>7250</v>
       </c>
       <c r="B7250">
-        <v>4.524225545126786</v>
+        <v>4.524225545126785</v>
       </c>
     </row>
     <row r="7251" spans="1:2">
@@ -58495,7 +58495,7 @@
         <v>7269</v>
       </c>
       <c r="B7269">
-        <v>18.8814240438997</v>
+        <v>18.88142404389969</v>
       </c>
     </row>
     <row r="7270" spans="1:2">
@@ -58727,7 +58727,7 @@
         <v>7298</v>
       </c>
       <c r="B7298">
-        <v>7.434831258488071</v>
+        <v>7.43483125848807</v>
       </c>
     </row>
     <row r="7299" spans="1:2">
@@ -58839,7 +58839,7 @@
         <v>7312</v>
       </c>
       <c r="B7312">
-        <v>47.94085357526153</v>
+        <v>47.94085357526152</v>
       </c>
     </row>
     <row r="7313" spans="1:2">
@@ -58863,7 +58863,7 @@
         <v>7315</v>
       </c>
       <c r="B7315">
-        <v>26.35242026855858</v>
+        <v>26.35242026855857</v>
       </c>
     </row>
     <row r="7316" spans="1:2">
@@ -58919,7 +58919,7 @@
         <v>7322</v>
       </c>
       <c r="B7322">
-        <v>4.526687341851542</v>
+        <v>4.526687341851541</v>
       </c>
     </row>
     <row r="7323" spans="1:2">
@@ -59047,7 +59047,7 @@
         <v>7338</v>
       </c>
       <c r="B7338">
-        <v>37.36509207412822</v>
+        <v>37.36509207412821</v>
       </c>
     </row>
     <row r="7339" spans="1:2">
@@ -59063,7 +59063,7 @@
         <v>7340</v>
       </c>
       <c r="B7340">
-        <v>22.5165306719357</v>
+        <v>22.51653067193569</v>
       </c>
     </row>
     <row r="7341" spans="1:2">
@@ -59135,7 +59135,7 @@
         <v>7349</v>
       </c>
       <c r="B7349">
-        <v>1.455056677008167</v>
+        <v>1.455056677008166</v>
       </c>
     </row>
     <row r="7350" spans="1:2">
@@ -59255,7 +59255,7 @@
         <v>7364</v>
       </c>
       <c r="B7364">
-        <v>15.81255996966129</v>
+        <v>15.81255996966128</v>
       </c>
     </row>
     <row r="7365" spans="1:2">
@@ -59279,7 +59279,7 @@
         <v>7367</v>
       </c>
       <c r="B7367">
-        <v>8.941978381907905</v>
+        <v>8.941978381907903</v>
       </c>
     </row>
     <row r="7368" spans="1:2">
@@ -59407,7 +59407,7 @@
         <v>7383</v>
       </c>
       <c r="B7383">
-        <v>26.57641446340745</v>
+        <v>26.57641446340744</v>
       </c>
     </row>
     <row r="7384" spans="1:2">
@@ -59575,7 +59575,7 @@
         <v>7404</v>
       </c>
       <c r="B7404">
-        <v>31.01834566087813</v>
+        <v>31.01834566087812</v>
       </c>
     </row>
     <row r="7405" spans="1:2">
@@ -59655,7 +59655,7 @@
         <v>7414</v>
       </c>
       <c r="B7414">
-        <v>7.700822533177107</v>
+        <v>7.700822533177106</v>
       </c>
     </row>
     <row r="7415" spans="1:2">
@@ -59919,7 +59919,7 @@
         <v>7447</v>
       </c>
       <c r="B7447">
-        <v>15.69073033888977</v>
+        <v>15.69073033888976</v>
       </c>
     </row>
     <row r="7448" spans="1:2">
@@ -59951,7 +59951,7 @@
         <v>7451</v>
       </c>
       <c r="B7451">
-        <v>27.85725213077299</v>
+        <v>27.85725213077298</v>
       </c>
     </row>
     <row r="7452" spans="1:2">
@@ -60071,7 +60071,7 @@
         <v>7466</v>
       </c>
       <c r="B7466">
-        <v>9.823242995162571</v>
+        <v>9.82324299516257</v>
       </c>
     </row>
     <row r="7467" spans="1:2">
@@ -60135,7 +60135,7 @@
         <v>7474</v>
       </c>
       <c r="B7474">
-        <v>31.38028839362489</v>
+        <v>31.38028839362488</v>
       </c>
     </row>
     <row r="7475" spans="1:2">
@@ -60327,7 +60327,7 @@
         <v>7498</v>
       </c>
       <c r="B7498">
-        <v>46.35094319052373</v>
+        <v>46.35094319052372</v>
       </c>
     </row>
     <row r="7499" spans="1:2">
@@ -60367,7 +60367,7 @@
         <v>7503</v>
       </c>
       <c r="B7503">
-        <v>72.45565981720574</v>
+        <v>72.45565981720573</v>
       </c>
     </row>
     <row r="7504" spans="1:2">
@@ -60391,7 +60391,7 @@
         <v>7506</v>
       </c>
       <c r="B7506">
-        <v>50.95977834451205</v>
+        <v>50.95977834451204</v>
       </c>
     </row>
     <row r="7507" spans="1:2">
@@ -60399,7 +60399,7 @@
         <v>7507</v>
       </c>
       <c r="B7507">
-        <v>47.02588579256081</v>
+        <v>47.0258857925608</v>
       </c>
     </row>
     <row r="7508" spans="1:2">
@@ -60407,7 +60407,7 @@
         <v>7508</v>
       </c>
       <c r="B7508">
-        <v>43.32439857426802</v>
+        <v>43.32439857426801</v>
       </c>
     </row>
     <row r="7509" spans="1:2">
@@ -60431,7 +60431,7 @@
         <v>7511</v>
       </c>
       <c r="B7511">
-        <v>52.57753047792267</v>
+        <v>52.57753047792266</v>
       </c>
     </row>
     <row r="7512" spans="1:2">
@@ -60463,7 +60463,7 @@
         <v>7515</v>
       </c>
       <c r="B7515">
-        <v>62.10292537649372</v>
+        <v>62.10292537649371</v>
       </c>
     </row>
     <row r="7516" spans="1:2">
@@ -60679,7 +60679,7 @@
         <v>7542</v>
       </c>
       <c r="B7542">
-        <v>3.541177360145036</v>
+        <v>3.541177360145035</v>
       </c>
     </row>
     <row r="7543" spans="1:2">
@@ -61175,7 +61175,7 @@
         <v>7604</v>
       </c>
       <c r="B7604">
-        <v>16.46391035308613</v>
+        <v>16.46391035308612</v>
       </c>
     </row>
     <row r="7605" spans="1:2">
@@ -61311,7 +61311,7 @@
         <v>7621</v>
       </c>
       <c r="B7621">
-        <v>23.39316476277952</v>
+        <v>23.39316476277951</v>
       </c>
     </row>
     <row r="7622" spans="1:2">
@@ -61471,7 +61471,7 @@
         <v>7641</v>
       </c>
       <c r="B7641">
-        <v>16.1809502652586</v>
+        <v>16.18095026525859</v>
       </c>
     </row>
     <row r="7642" spans="1:2">
@@ -61759,7 +61759,7 @@
         <v>7677</v>
       </c>
       <c r="B7677">
-        <v>14.70812176046601</v>
+        <v>14.708121760466</v>
       </c>
     </row>
     <row r="7678" spans="1:2">
@@ -61791,7 +61791,7 @@
         <v>7681</v>
       </c>
       <c r="B7681">
-        <v>5.49352869839532</v>
+        <v>5.493528698395319</v>
       </c>
     </row>
     <row r="7682" spans="1:2">
@@ -61807,7 +61807,7 @@
         <v>7683</v>
       </c>
       <c r="B7683">
-        <v>3.031966430470948</v>
+        <v>3.031966430470947</v>
       </c>
     </row>
     <row r="7684" spans="1:2">
@@ -61927,7 +61927,7 @@
         <v>7698</v>
       </c>
       <c r="B7698">
-        <v>0.8190837309818877</v>
+        <v>0.8190837309818876</v>
       </c>
     </row>
     <row r="7699" spans="1:2">
@@ -62639,7 +62639,7 @@
         <v>7787</v>
       </c>
       <c r="B7787">
-        <v>10.96311349293201</v>
+        <v>10.963113492932</v>
       </c>
     </row>
     <row r="7788" spans="1:2">
@@ -63071,7 +63071,7 @@
         <v>7841</v>
       </c>
       <c r="B7841">
-        <v>8.740609271243695</v>
+        <v>8.740609271243693</v>
       </c>
     </row>
     <row r="7842" spans="1:2">
@@ -63231,7 +63231,7 @@
         <v>7861</v>
       </c>
       <c r="B7861">
-        <v>0.3902270186879679</v>
+        <v>0.3902270186879678</v>
       </c>
     </row>
     <row r="7862" spans="1:2">
@@ -63679,7 +63679,7 @@
         <v>7917</v>
       </c>
       <c r="B7917">
-        <v>6.8622583702554</v>
+        <v>6.862258370255399</v>
       </c>
     </row>
     <row r="7918" spans="1:2">
@@ -63687,7 +63687,7 @@
         <v>7918</v>
       </c>
       <c r="B7918">
-        <v>6.886700494879757</v>
+        <v>6.886700494879756</v>
       </c>
     </row>
     <row r="7919" spans="1:2">
@@ -63807,7 +63807,7 @@
         <v>7933</v>
       </c>
       <c r="B7933">
-        <v>29.74202128750797</v>
+        <v>29.74202128750796</v>
       </c>
     </row>
     <row r="7934" spans="1:2">
@@ -63831,7 +63831,7 @@
         <v>7936</v>
       </c>
       <c r="B7936">
-        <v>29.83375252260897</v>
+        <v>29.83375252260896</v>
       </c>
     </row>
     <row r="7937" spans="1:2">
@@ -63839,7 +63839,7 @@
         <v>7937</v>
       </c>
       <c r="B7937">
-        <v>24.96484612891258</v>
+        <v>24.96484612891257</v>
       </c>
     </row>
     <row r="7938" spans="1:2">
@@ -64007,7 +64007,7 @@
         <v>7958</v>
       </c>
       <c r="B7958">
-        <v>31.38908052478473</v>
+        <v>31.38908052478472</v>
       </c>
     </row>
     <row r="7959" spans="1:2">
@@ -64175,7 +64175,7 @@
         <v>7979</v>
       </c>
       <c r="B7979">
-        <v>20.04734855700613</v>
+        <v>20.04734855700612</v>
       </c>
     </row>
     <row r="7980" spans="1:2">
@@ -64255,7 +64255,7 @@
         <v>7989</v>
       </c>
       <c r="B7989">
-        <v>7.597954598606975</v>
+        <v>7.597954598606974</v>
       </c>
     </row>
     <row r="7990" spans="1:2">
@@ -64399,7 +64399,7 @@
         <v>8007</v>
       </c>
       <c r="B8007">
-        <v>18.84200598919975</v>
+        <v>18.84200598919974</v>
       </c>
     </row>
     <row r="8008" spans="1:2">
@@ -64471,7 +64471,7 @@
         <v>8016</v>
       </c>
       <c r="B8016">
-        <v>5.465657642618625</v>
+        <v>5.465657642618624</v>
       </c>
     </row>
     <row r="8017" spans="1:2">
@@ -64527,7 +64527,7 @@
         <v>8023</v>
       </c>
       <c r="B8023">
-        <v>11.39665348042374</v>
+        <v>11.39665348042373</v>
       </c>
     </row>
     <row r="8024" spans="1:2">
@@ -64743,7 +64743,7 @@
         <v>8050</v>
       </c>
       <c r="B8050">
-        <v>5.750757149028383</v>
+        <v>5.750757149028382</v>
       </c>
     </row>
     <row r="8051" spans="1:2">
@@ -65167,7 +65167,7 @@
         <v>8103</v>
       </c>
       <c r="B8103">
-        <v>73.26307052871775</v>
+        <v>73.26307052871773</v>
       </c>
     </row>
     <row r="8104" spans="1:2">
@@ -65215,7 +65215,7 @@
         <v>8109</v>
       </c>
       <c r="B8109">
-        <v>45.81081326627087</v>
+        <v>45.81081326627086</v>
       </c>
     </row>
     <row r="8110" spans="1:2">
@@ -65295,7 +65295,7 @@
         <v>8119</v>
       </c>
       <c r="B8119">
-        <v>30.67193569318042</v>
+        <v>30.67193569318041</v>
       </c>
     </row>
     <row r="8120" spans="1:2">
@@ -65423,7 +65423,7 @@
         <v>8135</v>
       </c>
       <c r="B8135">
-        <v>38.21118816274353</v>
+        <v>38.21118816274352</v>
       </c>
     </row>
     <row r="8136" spans="1:2">
@@ -65487,7 +65487,7 @@
         <v>8143</v>
       </c>
       <c r="B8143">
-        <v>18.30055724527292</v>
+        <v>18.30055724527291</v>
       </c>
     </row>
     <row r="8144" spans="1:2">
@@ -65503,7 +65503,7 @@
         <v>8145</v>
       </c>
       <c r="B8145">
-        <v>47.14809641568259</v>
+        <v>47.14809641568258</v>
       </c>
     </row>
     <row r="8146" spans="1:2">
@@ -65583,7 +65583,7 @@
         <v>8155</v>
       </c>
       <c r="B8155">
-        <v>59.85067444438128</v>
+        <v>59.85067444438127</v>
       </c>
     </row>
     <row r="8156" spans="1:2">
@@ -65799,7 +65799,7 @@
         <v>8182</v>
       </c>
       <c r="B8182">
-        <v>57.36953503107433</v>
+        <v>57.36953503107432</v>
       </c>
     </row>
     <row r="8183" spans="1:2">
@@ -65831,7 +65831,7 @@
         <v>8186</v>
       </c>
       <c r="B8186">
-        <v>36.83521963622851</v>
+        <v>36.8352196362285</v>
       </c>
     </row>
     <row r="8187" spans="1:2">
@@ -65951,7 +65951,7 @@
         <v>8201</v>
       </c>
       <c r="B8201">
-        <v>9.819433071659974</v>
+        <v>9.819433071659972</v>
       </c>
     </row>
     <row r="8202" spans="1:2">
@@ -65975,7 +65975,7 @@
         <v>8204</v>
       </c>
       <c r="B8204">
-        <v>8.621739657962653</v>
+        <v>8.621739657962651</v>
       </c>
     </row>
     <row r="8205" spans="1:2">
@@ -65991,7 +65991,7 @@
         <v>8206</v>
       </c>
       <c r="B8206">
-        <v>8.280780811584044</v>
+        <v>8.280780811584043</v>
       </c>
     </row>
     <row r="8207" spans="1:2">
@@ -66119,7 +66119,7 @@
         <v>8222</v>
       </c>
       <c r="B8222">
-        <v>6.893558357184432</v>
+        <v>6.893558357184431</v>
       </c>
     </row>
     <row r="8223" spans="1:2">
@@ -66127,7 +66127,7 @@
         <v>8223</v>
       </c>
       <c r="B8223">
-        <v>6.250824262296236</v>
+        <v>6.250824262296235</v>
       </c>
     </row>
     <row r="8224" spans="1:2">
@@ -66135,7 +66135,7 @@
         <v>8224</v>
       </c>
       <c r="B8224">
-        <v>6.495978186136451</v>
+        <v>6.49597818613645</v>
       </c>
     </row>
     <row r="8225" spans="1:2">
@@ -66367,7 +66367,7 @@
         <v>8253</v>
       </c>
       <c r="B8253">
-        <v>9.591072118335052</v>
+        <v>9.591072118335051</v>
       </c>
     </row>
     <row r="8254" spans="1:2">
@@ -66511,7 +66511,7 @@
         <v>8271</v>
       </c>
       <c r="B8271">
-        <v>24.64446086944799</v>
+        <v>24.64446086944798</v>
       </c>
     </row>
     <row r="8272" spans="1:2">
@@ -66775,7 +66775,7 @@
         <v>8304</v>
       </c>
       <c r="B8304">
-        <v>0.7740562966019586</v>
+        <v>0.7740562966019585</v>
       </c>
     </row>
     <row r="8305" spans="1:2">
@@ -66951,7 +66951,7 @@
         <v>8326</v>
       </c>
       <c r="B8326">
-        <v>7.057707445938652</v>
+        <v>7.057707445938651</v>
       </c>
     </row>
     <row r="8327" spans="1:2">
@@ -66967,7 +66967,7 @@
         <v>8328</v>
       </c>
       <c r="B8328">
-        <v>3.326737281156529</v>
+        <v>3.326737281156528</v>
       </c>
     </row>
     <row r="8329" spans="1:2">
@@ -67111,7 +67111,7 @@
         <v>8346</v>
       </c>
       <c r="B8346">
-        <v>12.49484927649553</v>
+        <v>12.49484927649552</v>
       </c>
     </row>
     <row r="8347" spans="1:2">
@@ -67239,7 +67239,7 @@
         <v>8362</v>
       </c>
       <c r="B8362">
-        <v>0.4780398940020668</v>
+        <v>0.4780398940020667</v>
       </c>
     </row>
     <row r="8363" spans="1:2">
@@ -67287,7 +67287,7 @@
         <v>8368</v>
       </c>
       <c r="B8368">
-        <v>5.980202465196349</v>
+        <v>5.980202465196348</v>
       </c>
     </row>
     <row r="8369" spans="1:2">
@@ -67295,7 +67295,7 @@
         <v>8369</v>
       </c>
       <c r="B8369">
-        <v>0.5234365978907092</v>
+        <v>0.5234365978907091</v>
       </c>
     </row>
     <row r="8370" spans="1:2">
@@ -67479,7 +67479,7 @@
         <v>8392</v>
       </c>
       <c r="B8392">
-        <v>6.765662155912621</v>
+        <v>6.76566215591262</v>
       </c>
     </row>
     <row r="8393" spans="1:2">
@@ -67807,7 +67807,7 @@
         <v>8433</v>
       </c>
       <c r="B8433">
-        <v>10.88222588626148</v>
+        <v>10.88222588626147</v>
       </c>
     </row>
     <row r="8434" spans="1:2">
@@ -67839,7 +67839,7 @@
         <v>8437</v>
       </c>
       <c r="B8437">
-        <v>19.25467931873879</v>
+        <v>19.25467931873878</v>
       </c>
     </row>
     <row r="8438" spans="1:2">
@@ -67991,7 +67991,7 @@
         <v>8456</v>
       </c>
       <c r="B8456">
-        <v>13.96278349494248</v>
+        <v>13.96278349494247</v>
       </c>
     </row>
     <row r="8457" spans="1:2">
@@ -68279,7 +68279,7 @@
         <v>8492</v>
       </c>
       <c r="B8492">
-        <v>20.32441791695657</v>
+        <v>20.32441791695656</v>
       </c>
     </row>
     <row r="8493" spans="1:2">
@@ -68303,7 +68303,7 @@
         <v>8495</v>
       </c>
       <c r="B8495">
-        <v>12.67675847019263</v>
+        <v>12.67675847019262</v>
       </c>
     </row>
     <row r="8496" spans="1:2">
@@ -68399,7 +68399,7 @@
         <v>8507</v>
       </c>
       <c r="B8507">
-        <v>22.04711878931182</v>
+        <v>22.04711878931181</v>
       </c>
     </row>
     <row r="8508" spans="1:2">
@@ -68479,7 +68479,7 @@
         <v>8517</v>
       </c>
       <c r="B8517">
-        <v>20.97477185884996</v>
+        <v>20.97477185884995</v>
       </c>
     </row>
     <row r="8518" spans="1:2">
@@ -68991,7 +68991,7 @@
         <v>8581</v>
       </c>
       <c r="B8581">
-        <v>4.528269925460313</v>
+        <v>4.528269925460312</v>
       </c>
     </row>
     <row r="8582" spans="1:2">
@@ -68999,7 +68999,7 @@
         <v>8582</v>
       </c>
       <c r="B8582">
-        <v>6.140453709136373</v>
+        <v>6.140453709136372</v>
       </c>
     </row>
     <row r="8583" spans="1:2">
@@ -69007,7 +69007,7 @@
         <v>8583</v>
       </c>
       <c r="B8583">
-        <v>6.511393722770038</v>
+        <v>6.511393722770037</v>
       </c>
     </row>
     <row r="8584" spans="1:2">
@@ -69015,7 +69015,7 @@
         <v>8584</v>
       </c>
       <c r="B8584">
-        <v>6.744736883752201</v>
+        <v>6.7447368837522</v>
       </c>
     </row>
     <row r="8585" spans="1:2">
@@ -69383,7 +69383,7 @@
         <v>8630</v>
       </c>
       <c r="B8630">
-        <v>8.943179973166417</v>
+        <v>8.943179973166416</v>
       </c>
     </row>
     <row r="8631" spans="1:2">
@@ -69399,7 +69399,7 @@
         <v>8632</v>
       </c>
       <c r="B8632">
-        <v>8.156108391737508</v>
+        <v>8.156108391737506</v>
       </c>
     </row>
     <row r="8633" spans="1:2">
@@ -69527,7 +69527,7 @@
         <v>8648</v>
       </c>
       <c r="B8648">
-        <v>6.519277333710028</v>
+        <v>6.519277333710027</v>
       </c>
     </row>
     <row r="8649" spans="1:2">
@@ -69567,7 +69567,7 @@
         <v>8653</v>
       </c>
       <c r="B8653">
-        <v>18.2777270113612</v>
+        <v>18.27772701136119</v>
       </c>
     </row>
     <row r="8654" spans="1:2">
@@ -69783,7 +69783,7 @@
         <v>8680</v>
       </c>
       <c r="B8680">
-        <v>16.89047524985772</v>
+        <v>16.89047524985771</v>
       </c>
     </row>
     <row r="8681" spans="1:2">
@@ -69791,7 +69791,7 @@
         <v>8681</v>
       </c>
       <c r="B8681">
-        <v>16.75150096332451</v>
+        <v>16.7515009633245</v>
       </c>
     </row>
     <row r="8682" spans="1:2">
@@ -69815,7 +69815,7 @@
         <v>8684</v>
       </c>
       <c r="B8684">
-        <v>8.259181476034703</v>
+        <v>8.259181476034701</v>
       </c>
     </row>
     <row r="8685" spans="1:2">
@@ -70287,7 +70287,7 @@
         <v>8743</v>
       </c>
       <c r="B8743">
-        <v>9.689075073663409</v>
+        <v>9.689075073663403</v>
       </c>
     </row>
     <row r="8744" spans="1:2">
@@ -70359,7 +70359,7 @@
         <v>8752</v>
       </c>
       <c r="B8752">
-        <v>5.771506578565606</v>
+        <v>5.771506578565605</v>
       </c>
     </row>
     <row r="8753" spans="1:2">
@@ -70375,7 +70375,7 @@
         <v>8754</v>
       </c>
       <c r="B8754">
-        <v>2.611306915128386</v>
+        <v>2.611306915128385</v>
       </c>
     </row>
     <row r="8755" spans="1:2">
